--- a/Tables/2_1_1_shapiro_wilk_tests.xlsx
+++ b/Tables/2_1_1_shapiro_wilk_tests.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.075529549584939e-05</v>
+        <v>1.075529549584947e-05</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01067424999085575</v>
+        <v>0.01067424999085551</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1018864077663147</v>
+        <v>0.1018864077663092</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2575575560492452</v>
+        <v>0.2575575560492392</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.09046362460309204</v>
+        <v>0.09046362460308989</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.02886465751038805</v>
+        <v>0.0288646575103895</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.03917533661493368</v>
+        <v>0.03917533661493464</v>
       </c>
     </row>
     <row r="11">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04724885163530403</v>
+        <v>0.04724885163530151</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.08136708726741616</v>
+        <v>0.08136708726741429</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.001262666362111311</v>
+        <v>0.001262666362111475</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7.474901469005855e-05</v>
+        <v>7.474901469006123e-05</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.378329759201007e-09</v>
+        <v>2.378329759200999e-09</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1420547577833997</v>
+        <v>0.142054757783409</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5.377498144862556e-05</v>
+        <v>5.377498144862904e-05</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.776273449703003e-06</v>
+        <v>5.776273449703905e-06</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.71207425014686e-08</v>
+        <v>6.712074250146723e-08</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0004911341480053683</v>
+        <v>0.0004911341480054234</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.220499637360941e-05</v>
+        <v>2.220499637360932e-05</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.026551796804988e-06</v>
+        <v>1.026551796804982e-06</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.03270905874090281</v>
+        <v>0.03270905874090273</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.136864055095244</v>
+        <v>0.1368640550952534</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.077275862121998e-05</v>
+        <v>2.077275862122111e-05</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.067109132494495e-07</v>
+        <v>1.067109132494536e-07</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.32865027989251e-05</v>
+        <v>1.328650279892547e-05</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.001857803963428824</v>
+        <v>0.001857803963429006</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6529558511094824</v>
+        <v>0.6529558511095316</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.508406540483338</v>
+        <v>0.5084065404833646</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.735694901428865e-08</v>
+        <v>6.735694901428963e-08</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02450060635378309</v>
+        <v>0.02450060635378304</v>
       </c>
     </row>
     <row r="34">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.893867720501993e-14</v>
+        <v>2.893867720501941e-14</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7.476512421271783e-13</v>
+        <v>7.476512421271674e-13</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6.506757706946192e-17</v>
+        <v>6.506757706946099e-17</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7.291652079388441e-09</v>
+        <v>7.291652079388254e-09</v>
       </c>
     </row>
     <row r="43">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.069777781576431e-11</v>
+        <v>1.069777781576435e-11</v>
       </c>
     </row>
     <row r="45">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.229071850491147e-11</v>
+        <v>3.229071850491134e-11</v>
       </c>
     </row>
     <row r="48">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.079227388232644e-07</v>
+        <v>2.079227388232555e-07</v>
       </c>
     </row>
     <row r="50">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0006042751147038056</v>
+        <v>0.0006042751147037451</v>
       </c>
     </row>
     <row r="53">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5.550622546339784e-18</v>
+        <v>5.550622546339864e-18</v>
       </c>
     </row>
     <row r="57">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.038298274118663e-11</v>
+        <v>1.038298274118656e-11</v>
       </c>
     </row>
     <row r="60">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.081694769557786e-10</v>
+        <v>1.081694769557762e-10</v>
       </c>
     </row>
     <row r="64">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2.560654951433714e-19</v>
+        <v>2.560654951433677e-19</v>
       </c>
     </row>
     <row r="66">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>9.889146845284887e-06</v>
+        <v>9.88914684528443e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8.085610086844135e-06</v>
+        <v>8.085610086843788e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.0356209023764718</v>
+        <v>0.03562090237647396</v>
       </c>
     </row>
     <row r="70">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.03528323938388554</v>
+        <v>0.03528323938388334</v>
       </c>
     </row>
     <row r="71">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.403450628159076e-13</v>
+        <v>1.403450628159086e-13</v>
       </c>
     </row>
     <row r="72">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.703805431374461e-07</v>
+        <v>1.703805431374502e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.833270598840075e-14</v>
+        <v>1.833270598840101e-14</v>
       </c>
     </row>
     <row r="78">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6.090457477926516e-17</v>
+        <v>6.090457477926429e-17</v>
       </c>
     </row>
     <row r="79">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8.269546316197772e-12</v>
+        <v>8.269546316197653e-12</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.929649871132695e-13</v>
+        <v>1.929649871132709e-13</v>
       </c>
     </row>
     <row r="84">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5.460773926024977e-17</v>
+        <v>5.460773926025055e-17</v>
       </c>
     </row>
     <row r="86">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0003049145106107091</v>
+        <v>0.0003049145106107377</v>
       </c>
     </row>
     <row r="88">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2.395527516478728e-19</v>
+        <v>2.395527516478762e-19</v>
       </c>
     </row>
     <row r="90">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.450103385222933e-17</v>
+        <v>1.450103385222964e-17</v>
       </c>
     </row>
     <row r="91">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.273809851120117e-15</v>
+        <v>1.273809851120108e-15</v>
       </c>
     </row>
     <row r="93">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.247757780399141e-06</v>
+        <v>1.247757780399146e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5.668542623599471e-10</v>
+        <v>5.668542623599369e-10</v>
       </c>
     </row>
     <row r="99">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5.208104208362032e-08</v>
+        <v>5.20810420836208e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4.112773528706613e-12</v>
+        <v>4.112773528706657e-12</v>
       </c>
     </row>
     <row r="105">
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4.010743600863507e-05</v>
+        <v>4.010743600863685e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4.011117577545649e-08</v>
+        <v>4.011117577545862e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.350617089650269e-19</v>
+        <v>1.35061708965025e-19</v>
       </c>
     </row>
     <row r="108">
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1.113241429129611e-06</v>
+        <v>1.113241429129605e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.3694715618445338</v>
+        <v>0.3694715618445544</v>
       </c>
     </row>
     <row r="110">
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.0008675145453242973</v>
+        <v>0.0008675145453243206</v>
       </c>
     </row>
     <row r="111">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.004374299259344218</v>
+        <v>0.004374299259344063</v>
       </c>
     </row>
     <row r="112">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1.262191379173523e-07</v>
+        <v>1.262191379173518e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.01241749104390834</v>
+        <v>0.01241749104390922</v>
       </c>
     </row>
     <row r="115">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.1941331685613434</v>
+        <v>0.1941331685613313</v>
       </c>
     </row>
     <row r="116">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.1686293501366915</v>
+        <v>0.1686293501366974</v>
       </c>
     </row>
     <row r="118">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9.211662694741604e-08</v>
+        <v>9.211662694741739e-08</v>
       </c>
     </row>
     <row r="119">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4.578764892357294e-07</v>
+        <v>4.578764892357438e-07</v>
       </c>
     </row>
     <row r="121">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>7.181825062703267e-16</v>
+        <v>7.181825062703216e-16</v>
       </c>
     </row>
     <row r="123">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>6.641413037401496e-09</v>
+        <v>6.641413037401424e-09</v>
       </c>
     </row>
     <row r="127">
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6.294463844272678e-15</v>
+        <v>6.294463844272633e-15</v>
       </c>
     </row>
     <row r="129">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.186625626615809</v>
+        <v>0.1866256266158318</v>
       </c>
     </row>
     <row r="130">
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.048832306919561</v>
+        <v>0.04883230691955911</v>
       </c>
     </row>
     <row r="131">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.03818221586657797</v>
+        <v>0.03818221586657544</v>
       </c>
     </row>
     <row r="132">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>8.976497835470406e-05</v>
+        <v>8.976497835470822e-05</v>
       </c>
     </row>
     <row r="133">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.0001204354675208587</v>
+        <v>0.0001204354675208699</v>
       </c>
     </row>
     <row r="134">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.5686976480746249</v>
+        <v>0.5686976480746087</v>
       </c>
     </row>
     <row r="135">
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.006430102394518435</v>
+        <v>0.006430102394517617</v>
       </c>
     </row>
     <row r="136">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2.6662328862057e-06</v>
+        <v>2.66623288620571e-06</v>
       </c>
     </row>
     <row r="137">
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.06034113996255214</v>
+        <v>0.06034113996255203</v>
       </c>
     </row>
     <row r="138">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4.289573796738195e-07</v>
+        <v>4.289573796738298e-07</v>
       </c>
     </row>
     <row r="139">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3.482873892128557e-08</v>
+        <v>3.482873892128588e-08</v>
       </c>
     </row>
     <row r="142">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3.13001290850884e-13</v>
+        <v>3.130012908508818e-13</v>
       </c>
     </row>
     <row r="143">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>8.168109177924871e-12</v>
+        <v>8.16810917792496e-12</v>
       </c>
     </row>
     <row r="145">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>9.635068883576913e-10</v>
+        <v>9.635068883577195e-10</v>
       </c>
     </row>
     <row r="147">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>5.666308937989923e-09</v>
+        <v>5.666308937990111e-09</v>
       </c>
     </row>
     <row r="148">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1.191019378657409e-07</v>
+        <v>1.19101937865738e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.3102451963368529</v>
+        <v>0.3102451963368522</v>
       </c>
     </row>
     <row r="151">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.01765289680498652</v>
+        <v>0.01765289680498768</v>
       </c>
     </row>
     <row r="152">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.1176300216517364</v>
+        <v>0.1176300216517407</v>
       </c>
     </row>
     <row r="153">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.4465520584311358</v>
+        <v>0.4465520584311613</v>
       </c>
     </row>
     <row r="155">
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.2834492853682857</v>
+        <v>0.283449285368297</v>
       </c>
     </row>
     <row r="156">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.7636136906345117</v>
+        <v>0.7636136906345412</v>
       </c>
     </row>
     <row r="157">
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>4.19871092230573e-06</v>
+        <v>4.198710922305886e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.06608407403684587</v>
+        <v>0.06608407403685014</v>
       </c>
     </row>
     <row r="159">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2.406362378985832e-14</v>
+        <v>2.406362378985815e-14</v>
       </c>
     </row>
     <row r="163">
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1.081777288561592e-05</v>
+        <v>1.081777288561618e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2.132521605084579e-13</v>
+        <v>2.132521605084548e-13</v>
       </c>
     </row>
     <row r="165">
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.0001742939298888202</v>
+        <v>0.0001742939298888294</v>
       </c>
     </row>
     <row r="167">
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2.008409664621501e-05</v>
+        <v>2.008409664621685e-05</v>
       </c>
     </row>
     <row r="171">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1.012200228468634e-14</v>
+        <v>1.012200228468641e-14</v>
       </c>
     </row>
     <row r="172">
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.9137890038112637</v>
+        <v>0.9137890038112862</v>
       </c>
     </row>
     <row r="174">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.02683205190010359</v>
+        <v>0.02683205190010353</v>
       </c>
     </row>
     <row r="175">
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.1282213397814535</v>
+        <v>0.1282213397814613</v>
       </c>
     </row>
     <row r="176">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1.150260723730301e-05</v>
+        <v>1.150260723730294e-05</v>
       </c>
     </row>
     <row r="177">
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.6865289893035784</v>
+        <v>0.6865289893036333</v>
       </c>
     </row>
     <row r="179">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.000904130605309574</v>
+        <v>0.0009041306053094829</v>
       </c>
     </row>
     <row r="180">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.1905438452447074</v>
+        <v>0.1905438452447002</v>
       </c>
     </row>
     <row r="182">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1.350861177170819e-10</v>
+        <v>1.350861177170804e-10</v>
       </c>
     </row>
     <row r="183">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>4.707589619285685e-15</v>
+        <v>4.707589619285618e-15</v>
       </c>
     </row>
     <row r="187">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>6.653215038510689e-17</v>
+        <v>6.653215038510593e-17</v>
       </c>
     </row>
     <row r="188">
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3.523967902217275e-11</v>
+        <v>3.523967902217249e-11</v>
       </c>
     </row>
     <row r="189">
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.0001064670692957478</v>
+        <v>0.0001064670692957519</v>
       </c>
     </row>
     <row r="191">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2.512306305258154e-17</v>
+        <v>2.512306305258208e-17</v>
       </c>
     </row>
     <row r="192">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>8.484382458553701e-12</v>
+        <v>8.484382458553732e-12</v>
       </c>
     </row>
     <row r="193">
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.125073385300515</v>
+        <v>0.1250733853005198</v>
       </c>
     </row>
     <row r="194">
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3.6066682658296e-15</v>
+        <v>3.606668265829548e-15</v>
       </c>
     </row>
     <row r="196">
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>7.216808282986882e-12</v>
+        <v>7.216808282986908e-12</v>
       </c>
     </row>
     <row r="198">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.2107239045006694</v>
+        <v>0.2107239045006609</v>
       </c>
     </row>
     <row r="203">
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.07224722144977805</v>
+        <v>0.07224722144978087</v>
       </c>
     </row>
     <row r="204">
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.004566354672276614</v>
+        <v>0.00456635467227633</v>
       </c>
     </row>
     <row r="206">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>8.40797375990717e-05</v>
+        <v>8.4079737599069e-05</v>
       </c>
     </row>
     <row r="207">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.08536724666128967</v>
+        <v>0.08536724666128953</v>
       </c>
     </row>
     <row r="208">
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.1554256678807184</v>
+        <v>0.1554256678807288</v>
       </c>
     </row>
     <row r="211">
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>4.144383996264763e-08</v>
+        <v>4.144383996264884e-08</v>
       </c>
     </row>
     <row r="215">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3.435406552883959e-14</v>
+        <v>3.43540655288391e-14</v>
       </c>
     </row>
     <row r="216">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>7.400020263190227e-16</v>
+        <v>7.400020263190279e-16</v>
       </c>
     </row>
     <row r="217">
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2.302825736049991e-19</v>
+        <v>2.302825736050024e-19</v>
       </c>
     </row>
     <row r="218">
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>6.954394887863814e-16</v>
+        <v>6.954394887863913e-16</v>
       </c>
     </row>
     <row r="220">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1.846422730414298e-10</v>
+        <v>1.846422730414339e-10</v>
       </c>
     </row>
     <row r="222">
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>2.567557819812399e-10</v>
+        <v>2.567557819812483e-10</v>
       </c>
     </row>
     <row r="223">
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>2.600506513426604e-06</v>
+        <v>2.600506513426662e-06</v>
       </c>
     </row>
     <row r="225">
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.3237510795464721</v>
+        <v>0.3237510795464827</v>
       </c>
     </row>
     <row r="226">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.02402396094460437</v>
+        <v>0.02402396094460537</v>
       </c>
     </row>
     <row r="227">
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.1332785139371255</v>
+        <v>0.1332785139371252</v>
       </c>
     </row>
     <row r="228">
@@ -3393,7 +3393,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.001205629524050157</v>
+        <v>0.001205629524050192</v>
       </c>
     </row>
     <row r="229">
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>9.043520584651698e-05</v>
+        <v>9.04352058465251e-05</v>
       </c>
     </row>
     <row r="230">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.003207252034860622</v>
+        <v>0.003207252034860747</v>
       </c>
     </row>
     <row r="231">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.01722642080133511</v>
+        <v>0.01722642080133645</v>
       </c>
     </row>
     <row r="232">
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1.34863902044729e-05</v>
+        <v>1.348639020447323e-05</v>
       </c>
     </row>
     <row r="233">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>7.510050771855547e-12</v>
+        <v>7.5100507718556e-12</v>
       </c>
     </row>
     <row r="235">
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2.150173638713523e-12</v>
+        <v>2.150173638713531e-12</v>
       </c>
     </row>
     <row r="238">
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>4.010869774092542e-14</v>
+        <v>4.010869774092513e-14</v>
       </c>
     </row>
     <row r="239">
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6.028052494439712e-13</v>
+        <v>6.028052494439667e-13</v>
       </c>
     </row>
     <row r="240">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1.871033223278996e-20</v>
+        <v>1.871033223279036e-20</v>
       </c>
     </row>
     <row r="242">
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>8.069579703333932e-14</v>
+        <v>8.069579703333874e-14</v>
       </c>
     </row>
     <row r="243">
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>2.949078795187513e-15</v>
+        <v>2.949078795187534e-15</v>
       </c>
     </row>
     <row r="244">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.1574474791730184</v>
+        <v>0.1574474791730384</v>
       </c>
     </row>
     <row r="247">
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.002503200457945003</v>
+        <v>0.002503200457944995</v>
       </c>
     </row>
     <row r="248">
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.01522651718473567</v>
+        <v>0.01522651718473676</v>
       </c>
     </row>
     <row r="249">
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1.099581788531172e-05</v>
+        <v>1.09958178853112e-05</v>
       </c>
     </row>
     <row r="250">
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3.554775135304731e-05</v>
+        <v>3.554775135304643e-05</v>
       </c>
     </row>
     <row r="251">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.01509817771591487</v>
+        <v>0.01509817771591614</v>
       </c>
     </row>
     <row r="252">
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1.623332624658882e-06</v>
+        <v>1.623332624658931e-06</v>
       </c>
     </row>
     <row r="253">
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.1585468747471524</v>
+        <v>0.1585468747471583</v>
       </c>
     </row>
     <row r="254">
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>2.870821909060857e-11</v>
+        <v>2.870821909060836e-11</v>
       </c>
     </row>
     <row r="255">
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.0005633012358592909</v>
+        <v>0.0005633012358593103</v>
       </c>
     </row>
     <row r="256">
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1.27382885820089e-13</v>
+        <v>1.273828858200871e-13</v>
       </c>
     </row>
     <row r="259">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1.564200031387073e-10</v>
+        <v>1.564200031387056e-10</v>
       </c>
     </row>
     <row r="266">
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.0007046220362794619</v>
+        <v>0.0007046220362794598</v>
       </c>
     </row>
     <row r="268">
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.003700548439560715</v>
+        <v>0.003700548439561119</v>
       </c>
     </row>
     <row r="269">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.02929848026487416</v>
+        <v>0.02929848026487081</v>
       </c>
     </row>
     <row r="270">
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.0193319631872613</v>
+        <v>0.01933196318726062</v>
       </c>
     </row>
     <row r="271">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.0002027089326288326</v>
+        <v>0.0002027089326288318</v>
       </c>
     </row>
     <row r="272">
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>2.735781704588631e-06</v>
+        <v>2.735781704588606e-06</v>
       </c>
     </row>
     <row r="273">
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.001094970151674713</v>
+        <v>0.00109497015167471</v>
       </c>
     </row>
     <row r="274">
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.3902727554162116</v>
+        <v>0.3902727554162357</v>
       </c>
     </row>
     <row r="278">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1.733602470456392e-12</v>
+        <v>1.733602470456367e-12</v>
       </c>
     </row>
     <row r="279">
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>7.73306179677108e-18</v>
+        <v>7.733061796770967e-18</v>
       </c>
     </row>
     <row r="280">
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>8.940801157557864e-12</v>
+        <v>8.940801157557766e-12</v>
       </c>
     </row>
     <row r="281">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>4.350912704642868e-14</v>
+        <v>4.350912704642837e-14</v>
       </c>
     </row>
     <row r="282">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>4.540368020862993e-16</v>
+        <v>4.540368020863059e-16</v>
       </c>
     </row>
     <row r="285">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.6100478582758508</v>
+        <v>0.6100478582759005</v>
       </c>
     </row>
     <row r="287">
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.3198066279184323</v>
+        <v>0.3198066279184211</v>
       </c>
     </row>
     <row r="288">
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.0389496484344495</v>
+        <v>0.03894964843445198</v>
       </c>
     </row>
     <row r="289">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.001229492998551292</v>
+        <v>0.001229492998551288</v>
       </c>
     </row>
     <row r="292">
@@ -4251,7 +4251,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>4.433200667625932e-06</v>
+        <v>4.433200667626031e-06</v>
       </c>
     </row>
     <row r="295">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.1250781913609808</v>
+        <v>0.1250781913609978</v>
       </c>
     </row>
     <row r="296">
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1.53945272703131e-12</v>
+        <v>1.539452727031299e-12</v>
       </c>
     </row>
     <row r="297">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1.336650534299525e-09</v>
+        <v>1.33665053429952e-09</v>
       </c>
     </row>
     <row r="300">
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>3.52231626111892e-13</v>
+        <v>3.522316261118946e-13</v>
       </c>
     </row>
     <row r="301">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2.253043986628863e-17</v>
+        <v>2.25304398662883e-17</v>
       </c>
     </row>
     <row r="302">
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1.411179540334319e-15</v>
+        <v>1.411179540334339e-15</v>
       </c>
     </row>
     <row r="304">
@@ -4381,7 +4381,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3.295165634407319e-10</v>
+        <v>3.295165634407367e-10</v>
       </c>
     </row>
     <row r="305">
@@ -4394,7 +4394,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2.284917131619512e-14</v>
+        <v>2.284917131619537e-14</v>
       </c>
     </row>
     <row r="306">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1.311784887555327e-14</v>
+        <v>1.311784887555332e-14</v>
       </c>
     </row>
     <row r="307">
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.9652536513451369</v>
+        <v>0.9652536513451435</v>
       </c>
     </row>
     <row r="308">
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.0004761705637961701</v>
+        <v>0.0004761705637961684</v>
       </c>
     </row>
     <row r="309">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.002090112919908793</v>
+        <v>0.002090112919908857</v>
       </c>
     </row>
     <row r="310">
@@ -4459,7 +4459,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>5.257640719740649e-05</v>
+        <v>5.257640719740786e-05</v>
       </c>
     </row>
     <row r="311">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>9.733708860536307e-05</v>
+        <v>9.733708860536722e-05</v>
       </c>
     </row>
     <row r="312">
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.0005461159311478643</v>
+        <v>0.0005461159311478622</v>
       </c>
     </row>
     <row r="313">
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.0003864594877235945</v>
+        <v>0.0003864594877236218</v>
       </c>
     </row>
     <row r="314">
@@ -4511,7 +4511,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.000526980073425941</v>
+        <v>0.0005269800734259577</v>
       </c>
     </row>
     <row r="315">
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.3775182869083966</v>
+        <v>0.3775182869084197</v>
       </c>
     </row>
     <row r="316">
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2.331677586418966e-07</v>
+        <v>2.331677586418945e-07</v>
       </c>
     </row>
     <row r="317">
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.4376208825190707</v>
+        <v>0.4376208825190568</v>
       </c>
     </row>
     <row r="318">
@@ -4563,7 +4563,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2.106921928412021e-13</v>
+        <v>2.106921928412013e-13</v>
       </c>
     </row>
     <row r="319">
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.007571338633430082</v>
+        <v>0.007571338633429841</v>
       </c>
     </row>
     <row r="320">
@@ -4589,7 +4589,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>4.058928867817649e-18</v>
+        <v>4.05892886781759e-18</v>
       </c>
     </row>
     <row r="321">
@@ -4628,7 +4628,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1.34655381497998e-12</v>
+        <v>1.346553814979989e-12</v>
       </c>
     </row>
     <row r="324">
@@ -4641,7 +4641,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>8.039718787789098e-14</v>
+        <v>8.039718787788981e-14</v>
       </c>
     </row>
     <row r="325">
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>3.156242644322897e-13</v>
+        <v>3.156242644322977e-13</v>
       </c>
     </row>
     <row r="328">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>9.261385856300263e-09</v>
+        <v>9.261385856300348e-09</v>
       </c>
     </row>
     <row r="329">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>5.111042965576675e-20</v>
+        <v>5.111042965576785e-20</v>
       </c>
     </row>
     <row r="330">
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1.354235663189443e-06</v>
+        <v>1.354235663189473e-06</v>
       </c>
     </row>
     <row r="331">
@@ -4745,7 +4745,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.3144119242722636</v>
+        <v>0.3144119242722754</v>
       </c>
     </row>
     <row r="333">
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.0003958926428435508</v>
+        <v>0.0003958926428435488</v>
       </c>
     </row>
     <row r="334">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>4.742908127946327e-06</v>
+        <v>4.742908127946186e-06</v>
       </c>
     </row>
     <row r="335">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.001503938748239599</v>
+        <v>0.001503938748239643</v>
       </c>
     </row>
     <row r="337">
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.3554214713630963</v>
+        <v>0.3554214713630964</v>
       </c>
     </row>
     <row r="338">
@@ -4823,7 +4823,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1.253044922714049e-08</v>
+        <v>1.253044922714095e-08</v>
       </c>
     </row>
     <row r="339">
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.2559484453522758</v>
+        <v>0.2559484453522662</v>
       </c>
     </row>
     <row r="340">
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1.661776829730887e-15</v>
+        <v>1.661776829730863e-15</v>
       </c>
     </row>
     <row r="344">
@@ -4914,7 +4914,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3.189773783068589e-15</v>
+        <v>3.189773783068565e-15</v>
       </c>
     </row>
     <row r="346">
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3.241570209804584e-16</v>
+        <v>3.241570209804631e-16</v>
       </c>
     </row>
     <row r="347">
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>1.454105072544041e-15</v>
+        <v>1.454105072544021e-15</v>
       </c>
     </row>
     <row r="348">
@@ -4979,7 +4979,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>1.06652632488686e-08</v>
+        <v>1.066526324886849e-08</v>
       </c>
     </row>
     <row r="351">
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>1.396117765330967e-08</v>
+        <v>1.396117765330932e-08</v>
       </c>
     </row>
     <row r="353">
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.001829533843742844</v>
+        <v>0.00182953384374274</v>
       </c>
     </row>
     <row r="354">
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.006432374873296522</v>
+        <v>0.006432374873296733</v>
       </c>
     </row>
     <row r="356">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.001729067481332324</v>
+        <v>0.00172906748133242</v>
       </c>
     </row>
     <row r="357">
@@ -5070,7 +5070,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>3.429921181750803e-05</v>
+        <v>3.429921181750555e-05</v>
       </c>
     </row>
     <row r="358">
@@ -5083,7 +5083,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.05997598327970167</v>
+        <v>0.05997598327970539</v>
       </c>
     </row>
     <row r="359">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.8672920319262323</v>
+        <v>0.8672920319262041</v>
       </c>
     </row>
     <row r="360">
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.01413644486424558</v>
+        <v>0.01413644486424637</v>
       </c>
     </row>
     <row r="361">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2.288761271847444e-05</v>
+        <v>2.288761271847371e-05</v>
       </c>
     </row>
     <row r="362">
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.02175774195966141</v>
+        <v>0.02175774195966221</v>
       </c>
     </row>
     <row r="363">
@@ -5174,7 +5174,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>1.746488855252325e-09</v>
+        <v>1.746488855252306e-09</v>
       </c>
     </row>
     <row r="366">
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>3.322948072838408e-12</v>
+        <v>3.322948072838372e-12</v>
       </c>
     </row>
     <row r="370">
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>5.290897890476838e-05</v>
+        <v>5.290897890477262e-05</v>
       </c>
     </row>
     <row r="371">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>7.361897010891938e-17</v>
+        <v>7.361897010891832e-17</v>
       </c>
     </row>
     <row r="372">
@@ -5278,7 +5278,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.03749466337494604</v>
+        <v>0.03749466337494844</v>
       </c>
     </row>
     <row r="374">
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.05975874634947879</v>
+        <v>0.05975874634947869</v>
       </c>
     </row>
     <row r="376">
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0.002776803849954251</v>
+        <v>0.002776803849954474</v>
       </c>
     </row>
     <row r="377">
@@ -5330,7 +5330,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.3630529493115898</v>
+        <v>0.3630529493115686</v>
       </c>
     </row>
     <row r="378">
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.01335111451267154</v>
+        <v>0.01335111451267207</v>
       </c>
     </row>
     <row r="379">
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.008743129424396662</v>
+        <v>0.00874312942439757</v>
       </c>
     </row>
     <row r="380">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>3.302968747832913e-06</v>
+        <v>3.302968747832717e-06</v>
       </c>
     </row>
     <row r="382">
@@ -5395,7 +5395,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.1208424529976707</v>
+        <v>0.1208424529976801</v>
       </c>
     </row>
     <row r="383">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0.08469125917683516</v>
+        <v>0.08469125917683212</v>
       </c>
     </row>
     <row r="385">
@@ -5434,7 +5434,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>1.776318418020439e-07</v>
+        <v>1.77631841802044e-07</v>
       </c>
     </row>
     <row r="386">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>9.914776145784837e-14</v>
+        <v>9.914776145784623e-14</v>
       </c>
     </row>
     <row r="387">
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>5.297813668951121e-12</v>
+        <v>5.297813668951158e-12</v>
       </c>
     </row>
     <row r="389">
@@ -5486,7 +5486,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2.329625102761162e-11</v>
+        <v>2.32962510276112e-11</v>
       </c>
     </row>
     <row r="390">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.01559992024208125</v>
+        <v>0.01559992024208289</v>
       </c>
     </row>
     <row r="392">
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1.030274484389321e-15</v>
+        <v>1.030274484389328e-15</v>
       </c>
     </row>
     <row r="394">
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>8.84544469040945e-17</v>
+        <v>8.845444690409578e-17</v>
       </c>
     </row>
     <row r="396">
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>3.539193084179083e-18</v>
+        <v>3.539193084179159e-18</v>
       </c>
     </row>
     <row r="397">
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3.556031475634901e-09</v>
+        <v>3.55603147563494e-09</v>
       </c>
     </row>
     <row r="398">
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>4.53736071337946e-07</v>
+        <v>4.537360713379602e-07</v>
       </c>
     </row>
     <row r="400">
@@ -5629,7 +5629,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1.087278532568533e-17</v>
+        <v>1.087278532568548e-17</v>
       </c>
     </row>
     <row r="401">
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2.27981165420357e-15</v>
+        <v>2.279811654203587e-15</v>
       </c>
     </row>
     <row r="402">
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>5.431179921612332e-05</v>
+        <v>5.43117992161246e-05</v>
       </c>
     </row>
     <row r="403">
@@ -5668,7 +5668,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.09132384172861016</v>
+        <v>0.09132384172861002</v>
       </c>
     </row>
     <row r="404">
@@ -5694,7 +5694,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0.758535232249824</v>
+        <v>0.7585352322498545</v>
       </c>
     </row>
     <row r="406">
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2.874156504166859e-05</v>
+        <v>2.874156504166945e-05</v>
       </c>
     </row>
     <row r="407">
@@ -5720,7 +5720,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0.169899661403519</v>
+        <v>0.1698996614035131</v>
       </c>
     </row>
     <row r="408">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>5.867577704539979e-13</v>
+        <v>5.867577704539936e-13</v>
       </c>
     </row>
     <row r="410">
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1.131503467277843e-09</v>
+        <v>1.131503467277827e-09</v>
       </c>
     </row>
     <row r="411">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>4.533119375579149e-10</v>
+        <v>4.533119375579115e-10</v>
       </c>
     </row>
     <row r="412">
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3.769993615327081e-11</v>
+        <v>3.769993615326984e-11</v>
       </c>
     </row>
     <row r="414">
@@ -5811,7 +5811,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0.02917453662412733</v>
+        <v>0.02917453662412825</v>
       </c>
     </row>
     <row r="415">
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>1.748992334209169e-11</v>
+        <v>1.748992334209181e-11</v>
       </c>
     </row>
     <row r="417">
@@ -5850,7 +5850,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>7.920435461926673e-17</v>
+        <v>7.920435461926558e-17</v>
       </c>
     </row>
     <row r="418">
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>1.158667255903344e-15</v>
+        <v>1.158667255903352e-15</v>
       </c>
     </row>
     <row r="419">
@@ -5876,7 +5876,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>4.880143750112522e-15</v>
+        <v>4.880143750112451e-15</v>
       </c>
     </row>
     <row r="420">
@@ -5889,7 +5889,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>6.152033646655556e-11</v>
+        <v>6.152033646655579e-11</v>
       </c>
     </row>
     <row r="421">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.001590846120367881</v>
+        <v>0.001590846120368063</v>
       </c>
     </row>
     <row r="422">
@@ -5928,7 +5928,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>2.77883115963217e-06</v>
+        <v>2.778831159632242e-06</v>
       </c>
     </row>
     <row r="424">
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3.265107274033763e-16</v>
+        <v>3.26510727403381e-16</v>
       </c>
     </row>
     <row r="425">
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1.498979800316253e-11</v>
+        <v>1.498979800316291e-11</v>
       </c>
     </row>
     <row r="426">
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2.453070332033597e-13</v>
+        <v>2.45307033203358e-13</v>
       </c>
     </row>
     <row r="427">
@@ -5993,7 +5993,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3.350547307053493e-06</v>
+        <v>3.350547307053481e-06</v>
       </c>
     </row>
     <row r="429">
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>2.489693675785152e-07</v>
+        <v>2.489693675785143e-07</v>
       </c>
     </row>
     <row r="430">
@@ -6019,7 +6019,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>9.646216786308638e-09</v>
+        <v>9.646216786308796e-09</v>
       </c>
     </row>
     <row r="431">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0.003801350448466749</v>
+        <v>0.003801350448467251</v>
       </c>
     </row>
     <row r="432">
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>9.924210734051249e-06</v>
+        <v>9.924210734051527e-06</v>
       </c>
     </row>
     <row r="433">
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.0001760610382325619</v>
+        <v>0.0001760610382325795</v>
       </c>
     </row>
     <row r="434">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>6.818631778574234e-08</v>
+        <v>6.818631778574107e-08</v>
       </c>
     </row>
     <row r="435">
@@ -6084,7 +6084,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0.004382934949348626</v>
+        <v>0.004382934949348456</v>
       </c>
     </row>
     <row r="436">
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>8.227284790574118e-06</v>
+        <v>8.227284790574349e-06</v>
       </c>
     </row>
     <row r="437">
@@ -6110,7 +6110,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>2.264403019593057e-05</v>
+        <v>2.264403019593133e-05</v>
       </c>
     </row>
     <row r="438">
@@ -6136,7 +6136,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>7.061202374208283e-08</v>
+        <v>7.06120237420805e-08</v>
       </c>
     </row>
     <row r="440">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>9.651455033647695e-15</v>
+        <v>9.651455033647624e-15</v>
       </c>
     </row>
     <row r="442">
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>5.512571278513458e-09</v>
+        <v>5.512571278513398e-09</v>
       </c>
     </row>
     <row r="443">
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1.263916577644674e-05</v>
+        <v>1.263916577644699e-05</v>
       </c>
     </row>
     <row r="446">
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>2.143663056021007e-13</v>
+        <v>2.143663056020984e-13</v>
       </c>
     </row>
     <row r="447">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>9.391863713100525e-05</v>
+        <v>9.391863713101005e-05</v>
       </c>
     </row>
     <row r="451">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.002882489617050677</v>
+        <v>0.002882489617050555</v>
       </c>
     </row>
     <row r="452">
@@ -6305,7 +6305,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>2.600034943173058e-09</v>
+        <v>2.600034943172982e-09</v>
       </c>
     </row>
     <row r="453">
@@ -6318,7 +6318,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>0.338975115352517</v>
+        <v>0.3389751153525284</v>
       </c>
     </row>
     <row r="454">
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3.307471132215098e-09</v>
+        <v>3.30747113221505e-09</v>
       </c>
     </row>
     <row r="455">
@@ -6344,7 +6344,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>3.340957647098632e-13</v>
+        <v>3.34095764709868e-13</v>
       </c>
     </row>
     <row r="456">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>6.955229938212439e-09</v>
+        <v>6.955229938212159e-09</v>
       </c>
     </row>
     <row r="457">
@@ -6370,7 +6370,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>5.39719303671398e-07</v>
+        <v>5.397193036714151e-07</v>
       </c>
     </row>
     <row r="458">
@@ -6383,7 +6383,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1.067281764801246e-11</v>
+        <v>1.067281764801234e-11</v>
       </c>
     </row>
     <row r="459">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>4.044209677769872e-09</v>
+        <v>4.044209677769917e-09</v>
       </c>
     </row>
     <row r="460">
@@ -6409,7 +6409,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0.002257319123802286</v>
+        <v>0.00225731912380227</v>
       </c>
     </row>
     <row r="461">
@@ -6435,7 +6435,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>7.106776210149964e-05</v>
+        <v>7.106776210150246e-05</v>
       </c>
     </row>
     <row r="463">
@@ -6448,7 +6448,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>4.781704602622196e-07</v>
+        <v>4.781704602622365e-07</v>
       </c>
     </row>
     <row r="464">
@@ -6461,7 +6461,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>2.387958752090884e-10</v>
+        <v>2.387958752090937e-10</v>
       </c>
     </row>
     <row r="465">
@@ -6474,7 +6474,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0.0001053351824475755</v>
+        <v>0.0001053351824475801</v>
       </c>
     </row>
     <row r="466">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>9.995839802528279e-14</v>
+        <v>9.995839802528422e-14</v>
       </c>
     </row>
     <row r="467">
@@ -6500,7 +6500,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>2.250480406988248e-14</v>
+        <v>2.250480406988289e-14</v>
       </c>
     </row>
     <row r="468">
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>5.905689145243199e-16</v>
+        <v>5.905689145243113e-16</v>
       </c>
     </row>
     <row r="470">
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>5.227627605346294e-10</v>
+        <v>5.227627605346237e-10</v>
       </c>
     </row>
     <row r="471">
@@ -6565,7 +6565,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>0.8694557405617402</v>
+        <v>0.8694557405617136</v>
       </c>
     </row>
     <row r="473">
@@ -6578,7 +6578,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0.0007329254577559785</v>
+        <v>0.0007329254577560209</v>
       </c>
     </row>
     <row r="474">
@@ -6617,7 +6617,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0.1271259906144147</v>
+        <v>0.1271259906144051</v>
       </c>
     </row>
     <row r="477">
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0.00563693365152724</v>
+        <v>0.005636933651527605</v>
       </c>
     </row>
     <row r="478">
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0.2042716599193092</v>
+        <v>0.2042716599193182</v>
       </c>
     </row>
     <row r="479">
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>0.003510715198802834</v>
+        <v>0.003510715198802595</v>
       </c>
     </row>
     <row r="481">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0.2137650004228274</v>
+        <v>0.2137650004228193</v>
       </c>
     </row>
     <row r="482">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0.3561301579632997</v>
+        <v>0.3561301579633129</v>
       </c>
     </row>
     <row r="485">
@@ -6734,7 +6734,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>1.049894133080837e-07</v>
+        <v>1.049894133080858e-07</v>
       </c>
     </row>
     <row r="486">
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>0.3675746139491225</v>
+        <v>0.3675746139490972</v>
       </c>
     </row>
     <row r="489">
@@ -6799,7 +6799,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>0.1446548867231306</v>
+        <v>0.1446548867231385</v>
       </c>
     </row>
     <row r="491">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>3.98465035008071e-08</v>
+        <v>3.98465035008063e-08</v>
       </c>
     </row>
     <row r="492">
@@ -6825,7 +6825,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>4.768005722039184e-11</v>
+        <v>4.768005722039098e-11</v>
       </c>
     </row>
     <row r="493">
@@ -6864,7 +6864,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>0.9212345823928769</v>
+        <v>0.9212345823928983</v>
       </c>
     </row>
     <row r="496">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>9.605053739963436e-05</v>
+        <v>9.605053739963719e-05</v>
       </c>
     </row>
     <row r="497">
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>5.954900452206878e-08</v>
+        <v>5.954900452207053e-08</v>
       </c>
     </row>
     <row r="501">
@@ -6955,7 +6955,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>2.358670797884649e-07</v>
+        <v>2.358670797884705e-07</v>
       </c>
     </row>
     <row r="503">
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>0.0006063915005233205</v>
+        <v>0.0006063915005233472</v>
       </c>
     </row>
     <row r="504">
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>9.234712044980312e-09</v>
+        <v>9.234712044980448e-09</v>
       </c>
     </row>
     <row r="506">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>6.164605462280961e-12</v>
+        <v>6.164605462280849e-12</v>
       </c>
     </row>
     <row r="507">
@@ -7033,7 +7033,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>0.01487995500400283</v>
+        <v>0.0148799550040035</v>
       </c>
     </row>
     <row r="509">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>0.1318088176750342</v>
+        <v>0.1318088176750429</v>
       </c>
     </row>
     <row r="510">
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>8.927746312961847e-06</v>
+        <v>8.927746312962282e-06</v>
       </c>
     </row>
     <row r="511">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1.894693801949912e-05</v>
+        <v>1.894693801949827e-05</v>
       </c>
     </row>
     <row r="512">
@@ -7111,7 +7111,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>0.02613098126118067</v>
+        <v>0.02613098126117954</v>
       </c>
     </row>
     <row r="515">
@@ -7137,7 +7137,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>8.423139590374828e-07</v>
+        <v>8.423139590374642e-07</v>
       </c>
     </row>
     <row r="517">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>3.16646912184976e-05</v>
+        <v>3.166469121849677e-05</v>
       </c>
     </row>
     <row r="518">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>0.006830971401512898</v>
+        <v>0.006830971401512486</v>
       </c>
     </row>
     <row r="519">
@@ -7176,7 +7176,7 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>0.002233559083946072</v>
+        <v>0.002233559083945829</v>
       </c>
     </row>
     <row r="520">
@@ -7189,7 +7189,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>7.253782307772292e-10</v>
+        <v>7.253782307772452e-10</v>
       </c>
     </row>
     <row r="521">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>4.406198564049776e-05</v>
+        <v>4.406198564050103e-05</v>
       </c>
     </row>
     <row r="522">
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>7.081875495340783e-07</v>
+        <v>7.081875495340744e-07</v>
       </c>
     </row>
     <row r="523">
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>0.3960370169010112</v>
+        <v>0.3960370169009808</v>
       </c>
     </row>
     <row r="524">
@@ -7241,7 +7241,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>0.6851027648964196</v>
+        <v>0.6851027648964575</v>
       </c>
     </row>
     <row r="525">
@@ -7254,7 +7254,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>3.239755088195602e-10</v>
+        <v>3.239755088195696e-10</v>
       </c>
     </row>
     <row r="526">
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>0.5218535134021298</v>
+        <v>0.5218535134021001</v>
       </c>
     </row>
     <row r="527">
@@ -7293,7 +7293,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>0.01433338658831063</v>
+        <v>0.01433338658831068</v>
       </c>
     </row>
     <row r="529">
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1.744220014626917e-07</v>
+        <v>1.74422001462699e-07</v>
       </c>
     </row>
     <row r="531">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>0.06282366326218364</v>
+        <v>0.06282366326217949</v>
       </c>
     </row>
     <row r="532">
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>1.536368634570946e-11</v>
+        <v>1.536368634570929e-11</v>
       </c>
     </row>
     <row r="534">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>0.8264985020971058</v>
+        <v>0.8264985020970771</v>
       </c>
     </row>
     <row r="535">
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>0.005319082806720079</v>
+        <v>0.005319082806719856</v>
       </c>
     </row>
     <row r="536">
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>0.6668479719245444</v>
+        <v>0.6668479719245616</v>
       </c>
     </row>
     <row r="537">
@@ -7423,7 +7423,7 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>0.02178337745204341</v>
+        <v>0.02178337745204422</v>
       </c>
     </row>
     <row r="539">
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1.660883777633652e-06</v>
+        <v>1.660883777633695e-06</v>
       </c>
     </row>
     <row r="540">
@@ -7449,7 +7449,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>0.05729003483688901</v>
+        <v>0.0572900348368932</v>
       </c>
     </row>
     <row r="541">
@@ -7488,7 +7488,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>0.02452765232834554</v>
+        <v>0.02452765232834372</v>
       </c>
     </row>
     <row r="544">
@@ -7501,7 +7501,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>0.01266317467005289</v>
+        <v>0.01266317467005384</v>
       </c>
     </row>
     <row r="545">
@@ -7540,7 +7540,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>3.565342304293456e-14</v>
+        <v>3.565342304293482e-14</v>
       </c>
     </row>
     <row r="548">
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>0.8150254684247207</v>
+        <v>0.8150254684247027</v>
       </c>
     </row>
     <row r="549">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>0.0002835848140840951</v>
+        <v>0.0002835848140840815</v>
       </c>
     </row>
     <row r="552">
@@ -7618,7 +7618,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>0.3148052137721977</v>
+        <v>0.3148052137722187</v>
       </c>
     </row>
     <row r="554">
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>0.04349695975671238</v>
+        <v>0.04349695975671408</v>
       </c>
     </row>
     <row r="555">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>0.04257171978292048</v>
+        <v>0.04257171978291781</v>
       </c>
     </row>
     <row r="557">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>6.54549052154616e-12</v>
+        <v>6.545490521546278e-12</v>
       </c>
     </row>
     <row r="560">
@@ -7709,7 +7709,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>0.04482465384408497</v>
+        <v>0.04482465384408164</v>
       </c>
     </row>
     <row r="561">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>0.1021848903908515</v>
+        <v>0.102184890390845</v>
       </c>
     </row>
     <row r="562">
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>0.1254947190529084</v>
+        <v>0.1254947190529142</v>
       </c>
     </row>
     <row r="563">
@@ -7748,7 +7748,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>0.1405928527996697</v>
+        <v>0.1405928527996805</v>
       </c>
     </row>
     <row r="564">
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>0.9175021412383848</v>
+        <v>0.9175021412383962</v>
       </c>
     </row>
     <row r="567">
@@ -7800,7 +7800,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>0.06163113489037548</v>
+        <v>0.06163113489037102</v>
       </c>
     </row>
     <row r="568">
@@ -7813,7 +7813,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>0.3389694046544717</v>
+        <v>0.3389694046544933</v>
       </c>
     </row>
     <row r="569">
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>0.002032730946246606</v>
+        <v>0.002032730946246695</v>
       </c>
     </row>
     <row r="570">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>0.0682667652517065</v>
+        <v>0.06826676525171697</v>
       </c>
     </row>
     <row r="572">
@@ -7865,7 +7865,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>4.063808564939213e-06</v>
+        <v>4.063808564939333e-06</v>
       </c>
     </row>
     <row r="573">
@@ -7878,7 +7878,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>0.0004223607093140317</v>
+        <v>0.0004223607093140632</v>
       </c>
     </row>
     <row r="574">
@@ -7891,7 +7891,7 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>0.148974094987237</v>
+        <v>0.1489740949872466</v>
       </c>
     </row>
     <row r="575">
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>1.292220400734042e-05</v>
+        <v>1.292220400734001e-05</v>
       </c>
     </row>
     <row r="577">
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>5.250811923766479e-09</v>
+        <v>5.250811923766382e-09</v>
       </c>
     </row>
     <row r="578">
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>0.003614745792596909</v>
+        <v>0.003614745792596769</v>
       </c>
     </row>
     <row r="579">
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>0.04929571679236402</v>
+        <v>0.04929571679236062</v>
       </c>
     </row>
     <row r="581">
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>2.199819090954526e-08</v>
+        <v>2.199819090954482e-08</v>
       </c>
     </row>
     <row r="582">
@@ -7995,7 +7995,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>0.2943569807660061</v>
+        <v>0.2943569807660449</v>
       </c>
     </row>
     <row r="583">
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>4.677452513693098e-13</v>
+        <v>4.677452513693133e-13</v>
       </c>
     </row>
     <row r="584">
@@ -8034,7 +8034,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>0.07244538177441745</v>
+        <v>0.07244538177441757</v>
       </c>
     </row>
     <row r="586">
@@ -8073,7 +8073,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>9.212197120448185e-10</v>
+        <v>9.212197120448051e-10</v>
       </c>
     </row>
     <row r="589">
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>0.8126662290604274</v>
+        <v>0.8126662290604093</v>
       </c>
     </row>
     <row r="590">
@@ -8099,7 +8099,7 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>0.7566974177106043</v>
+        <v>0.7566974177106042</v>
       </c>
     </row>
     <row r="591">
@@ -8138,7 +8138,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>0.3334622076543353</v>
+        <v>0.3334622076543604</v>
       </c>
     </row>
     <row r="594">
@@ -8151,7 +8151,7 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>0.01802071862680656</v>
+        <v>0.01802071862680738</v>
       </c>
     </row>
     <row r="595">
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>0.034113244977871</v>
+        <v>0.03411324497787391</v>
       </c>
     </row>
     <row r="596">
@@ -8190,7 +8190,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>0.09745727219183263</v>
+        <v>0.09745727219182637</v>
       </c>
     </row>
     <row r="598">
@@ -8229,7 +8229,7 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>1.169460616763256e-05</v>
+        <v>1.169460616763219e-05</v>
       </c>
     </row>
     <row r="601">
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>5.75491959573118e-08</v>
+        <v>5.754919595731042e-08</v>
       </c>
     </row>
     <row r="602">
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>2.229006910419327e-09</v>
+        <v>2.229006910419245e-09</v>
       </c>
     </row>
     <row r="603">
@@ -8281,7 +8281,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>0.0005642556461636695</v>
+        <v>0.0005642556461637086</v>
       </c>
     </row>
     <row r="605">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>0.6777225534617041</v>
+        <v>0.6777225534617224</v>
       </c>
     </row>
     <row r="607">
@@ -8320,7 +8320,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>0.5633630609232478</v>
+        <v>0.563363060923216</v>
       </c>
     </row>
     <row r="608">
@@ -8333,7 +8333,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>0.08474687426445215</v>
+        <v>0.08474687426444434</v>
       </c>
     </row>
     <row r="609">
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>0.010335967096543</v>
+        <v>0.01033596709654249</v>
       </c>
     </row>
     <row r="611">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>0.0001661957548552674</v>
+        <v>0.0001661957548552838</v>
       </c>
     </row>
     <row r="612">
@@ -8385,7 +8385,7 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>0.1789623052028487</v>
+        <v>0.1789623052028574</v>
       </c>
     </row>
     <row r="613">
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>0.2105584839449852</v>
+        <v>0.2105584839450033</v>
       </c>
     </row>
     <row r="614">
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>0.01406332844343374</v>
+        <v>0.01406332844343432</v>
       </c>
     </row>
     <row r="615">
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>0.1815426356215791</v>
+        <v>0.1815426356215667</v>
       </c>
     </row>
     <row r="616">
@@ -8437,7 +8437,7 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>1.466629903644756e-06</v>
+        <v>1.466629903644826e-06</v>
       </c>
     </row>
     <row r="617">
@@ -8463,7 +8463,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>0.1363045009383348</v>
+        <v>0.1363045009383399</v>
       </c>
     </row>
     <row r="619">
@@ -8476,7 +8476,7 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>0.2934425581506344</v>
+        <v>0.2934425581506473</v>
       </c>
     </row>
     <row r="620">
@@ -8489,7 +8489,7 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>0.06210955414166181</v>
+        <v>0.06210955414165736</v>
       </c>
     </row>
     <row r="621">
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>0.0001223695599156569</v>
+        <v>0.0001223695599156646</v>
       </c>
     </row>
     <row r="622">
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>4.232497666069286e-05</v>
+        <v>4.23249766606927e-05</v>
       </c>
     </row>
     <row r="623">
@@ -8528,7 +8528,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>6.838297389048427e-06</v>
+        <v>6.838297389048454e-06</v>
       </c>
     </row>
     <row r="624">
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>0.03771311810517251</v>
+        <v>0.03771311810516782</v>
       </c>
     </row>
     <row r="625">
@@ -8554,7 +8554,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>0.005748601593470101</v>
+        <v>0.005748601593470435</v>
       </c>
     </row>
     <row r="626">
@@ -8593,7 +8593,7 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>6.525028486182051e-05</v>
+        <v>6.52502848618183e-05</v>
       </c>
     </row>
     <row r="629">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>0.04953495304671155</v>
+        <v>0.0495349530467048</v>
       </c>
     </row>
     <row r="632">
@@ -8645,7 +8645,7 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>0.003121512930834079</v>
+        <v>0.003121512930834193</v>
       </c>
     </row>
     <row r="633">
@@ -8697,7 +8697,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>0.2377716160581061</v>
+        <v>0.2377716160581232</v>
       </c>
     </row>
     <row r="637">
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>0.6734631758581702</v>
+        <v>0.6734631758582064</v>
       </c>
     </row>
     <row r="639">
@@ -8749,7 +8749,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>0.003425149522377424</v>
+        <v>0.003425149522377575</v>
       </c>
     </row>
     <row r="641">
@@ -8788,7 +8788,7 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>0.8658483417983025</v>
+        <v>0.8658483417983297</v>
       </c>
     </row>
     <row r="644">
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>9.734258705327403e-05</v>
+        <v>9.734258705327126e-05</v>
       </c>
     </row>
     <row r="645">
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>2.067956426472697e-08</v>
+        <v>2.06795642647275e-08</v>
       </c>
     </row>
     <row r="647">
@@ -8840,7 +8840,7 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>0.02659103361469623</v>
+        <v>0.02659103361469442</v>
       </c>
     </row>
     <row r="648">
@@ -8879,7 +8879,7 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>5.090443987564011e-13</v>
+        <v>5.090443987563957e-13</v>
       </c>
     </row>
     <row r="651">
@@ -8905,7 +8905,7 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>0.05168030630348263</v>
+        <v>0.05168030630348616</v>
       </c>
     </row>
     <row r="653">
@@ -8931,7 +8931,7 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>0.1216365282821373</v>
+        <v>0.1216365282821194</v>
       </c>
     </row>
     <row r="655">
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>0.00459544311909629</v>
+        <v>0.004595443119096445</v>
       </c>
     </row>
     <row r="656">
@@ -8970,7 +8970,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>0.171203145486936</v>
+        <v>0.1712031454869435</v>
       </c>
     </row>
     <row r="658">
@@ -8983,7 +8983,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>2.828240994408756e-09</v>
+        <v>2.828240994408777e-09</v>
       </c>
     </row>
     <row r="659">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>1.313384260018653e-07</v>
+        <v>1.313384260018685e-07</v>
       </c>
     </row>
     <row r="660">
@@ -9022,7 +9022,7 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>0.0004232328896436263</v>
+        <v>0.0004232328896436608</v>
       </c>
     </row>
     <row r="662">
@@ -9048,7 +9048,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>0.06188786793738584</v>
+        <v>0.06188786793739028</v>
       </c>
     </row>
     <row r="664">
@@ -9061,7 +9061,7 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>6.452588743726933e-06</v>
+        <v>6.452588743727064e-06</v>
       </c>
     </row>
     <row r="665">
@@ -9074,7 +9074,7 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>1.764429840212843e-06</v>
+        <v>1.764429840212909e-06</v>
       </c>
     </row>
     <row r="666">
@@ -9087,7 +9087,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>3.048866304648193e-06</v>
+        <v>3.048866304648272e-06</v>
       </c>
     </row>
     <row r="667">
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>0.01806583222176578</v>
+        <v>0.01806583222176456</v>
       </c>
     </row>
     <row r="668">
@@ -9113,7 +9113,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1.305633246858134e-10</v>
+        <v>1.305633246858119e-10</v>
       </c>
     </row>
     <row r="669">
@@ -9126,7 +9126,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>0.002056915083937545</v>
+        <v>0.002056915083937616</v>
       </c>
     </row>
     <row r="670">
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>2.762294423139884e-09</v>
+        <v>2.762294423139955e-09</v>
       </c>
     </row>
     <row r="671">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>0.4604131715203308</v>
+        <v>0.4604131715203464</v>
       </c>
     </row>
     <row r="672">
@@ -9165,7 +9165,7 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>0.3443998479719821</v>
+        <v>0.344399847971982</v>
       </c>
     </row>
     <row r="673">
@@ -9178,7 +9178,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>1.052686807733099e-07</v>
+        <v>1.052686807733074e-07</v>
       </c>
     </row>
     <row r="674">
@@ -9204,7 +9204,7 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>0.0454990139619752</v>
+        <v>0.04549901396197849</v>
       </c>
     </row>
     <row r="676">
@@ -9230,7 +9230,7 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>0.9982506834047217</v>
+        <v>0.9982506834047234</v>
       </c>
     </row>
     <row r="678">
@@ -9256,7 +9256,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>0.0004373378037435206</v>
+        <v>0.0004373378037434962</v>
       </c>
     </row>
     <row r="680">
@@ -9269,7 +9269,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>3.22083691921842e-06</v>
+        <v>3.220836919218515e-06</v>
       </c>
     </row>
     <row r="681">
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>3.961682534057681e-07</v>
+        <v>3.961682534057571e-07</v>
       </c>
     </row>
     <row r="682">
@@ -9295,7 +9295,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>1.320115097957696e-08</v>
+        <v>1.320115097957662e-08</v>
       </c>
     </row>
     <row r="683">
@@ -9308,7 +9308,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>0.0632654924826996</v>
+        <v>0.06326549248269679</v>
       </c>
     </row>
     <row r="684">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>4.020092800875973e-05</v>
+        <v>4.020092800876136e-05</v>
       </c>
     </row>
     <row r="685">
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>1.124125634811553e-08</v>
+        <v>1.124125634811581e-08</v>
       </c>
     </row>
     <row r="686">
@@ -9373,7 +9373,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>2.742523583330479e-06</v>
+        <v>2.742523583330561e-06</v>
       </c>
     </row>
     <row r="689">
@@ -9386,7 +9386,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>0.3532373392086612</v>
+        <v>0.3532373392086611</v>
       </c>
     </row>
     <row r="690">
@@ -9399,7 +9399,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>0.0029602669469478</v>
+        <v>0.00296026694694769</v>
       </c>
     </row>
     <row r="691">
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>0.0002625204304219912</v>
+        <v>0.0002625204304219925</v>
       </c>
     </row>
     <row r="692">
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>0.2710432115706992</v>
+        <v>0.2710432115706894</v>
       </c>
     </row>
     <row r="693">
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>0.03268835019599058</v>
+        <v>0.03268835019599316</v>
       </c>
     </row>
     <row r="696">
@@ -9503,7 +9503,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>0.0147592901435526</v>
+        <v>0.01475929014355322</v>
       </c>
     </row>
     <row r="699">
@@ -9516,7 +9516,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>1.542700584430814e-06</v>
+        <v>1.542700584430853e-06</v>
       </c>
     </row>
     <row r="700">
@@ -9542,7 +9542,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>0.107022951768585</v>
+        <v>0.1070229517685806</v>
       </c>
     </row>
     <row r="702">
@@ -9568,7 +9568,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>0.03377448786652915</v>
+        <v>0.03377448786652663</v>
       </c>
     </row>
     <row r="704">
@@ -9581,7 +9581,7 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>3.726429692177084e-08</v>
+        <v>3.726429692177016e-08</v>
       </c>
     </row>
     <row r="705">
@@ -9594,7 +9594,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>1.146914201987167e-08</v>
+        <v>1.146914201987142e-08</v>
       </c>
     </row>
     <row r="706">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>1.777455336356393e-13</v>
+        <v>1.777455336356406e-13</v>
       </c>
     </row>
     <row r="707">
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>0.2155566634041901</v>
+        <v>0.2155566634042063</v>
       </c>
     </row>
     <row r="709">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>0.5304902034166583</v>
+        <v>0.5304902034166278</v>
       </c>
     </row>
     <row r="710">
@@ -9672,7 +9672,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>0.270169009007899</v>
+        <v>0.2701690090078795</v>
       </c>
     </row>
     <row r="712">
@@ -9724,7 +9724,7 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>0.1738423889474053</v>
+        <v>0.1738423889473985</v>
       </c>
     </row>
     <row r="716">
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>0.345249897672526</v>
+        <v>0.345249897672513</v>
       </c>
     </row>
     <row r="717">
@@ -9802,7 +9802,7 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>0.000542619800859641</v>
+        <v>0.0005426198008596198</v>
       </c>
     </row>
     <row r="722">
@@ -9815,7 +9815,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>4.668535367185459e-05</v>
+        <v>4.66853536718527e-05</v>
       </c>
     </row>
     <row r="723">
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>7.974289302251228e-06</v>
+        <v>7.974289302251494e-06</v>
       </c>
     </row>
     <row r="724">
@@ -9841,7 +9841,7 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>4.864769736704041e-05</v>
+        <v>4.86476973670406e-05</v>
       </c>
     </row>
     <row r="725">
@@ -9854,7 +9854,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>0.005521243565633647</v>
+        <v>0.005521243565633429</v>
       </c>
     </row>
     <row r="726">
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>0.05203604103214447</v>
+        <v>0.0520360410321468</v>
       </c>
     </row>
     <row r="727">
@@ -9919,7 +9919,7 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>0.1238408752017425</v>
+        <v>0.1238408752017427</v>
       </c>
     </row>
     <row r="731">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>0.03154629375016614</v>
+        <v>0.03154629375016468</v>
       </c>
     </row>
     <row r="732">
@@ -9945,7 +9945,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>0.001171652040122226</v>
+        <v>0.001171652040122127</v>
       </c>
     </row>
     <row r="733">
@@ -9958,7 +9958,7 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>0.1094057824452574</v>
+        <v>0.1094057824452572</v>
       </c>
     </row>
     <row r="734">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>0.2538813236320463</v>
+        <v>0.2538813236320464</v>
       </c>
     </row>
     <row r="735">
@@ -9984,7 +9984,7 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>1.465242633093272e-05</v>
+        <v>1.465242633093387e-05</v>
       </c>
     </row>
     <row r="736">
@@ -9997,7 +9997,7 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>0.0111201777852934</v>
+        <v>0.0111201777852929</v>
       </c>
     </row>
     <row r="737">
@@ -10010,7 +10010,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>0.1322897504664552</v>
+        <v>0.1322897504664496</v>
       </c>
     </row>
     <row r="738">
@@ -10036,7 +10036,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>0.50038520872265</v>
+        <v>0.5003852087226688</v>
       </c>
     </row>
     <row r="740">
@@ -10049,7 +10049,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>0.000576621612754726</v>
+        <v>0.0005766216127547016</v>
       </c>
     </row>
     <row r="741">
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>0.01374323256101818</v>
+        <v>0.01374323256101767</v>
       </c>
     </row>
     <row r="742">
@@ -10088,7 +10088,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>0.6683145182034889</v>
+        <v>0.6683145182034302</v>
       </c>
     </row>
     <row r="744">
@@ -10114,7 +10114,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>1.265350133161407e-09</v>
+        <v>1.265350133161434e-09</v>
       </c>
     </row>
     <row r="746">
@@ -10127,7 +10127,7 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>0.01179723996829527</v>
+        <v>0.01179723996829609</v>
       </c>
     </row>
     <row r="747">
@@ -10153,7 +10153,7 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>3.714303534900718e-05</v>
+        <v>3.714303534900613e-05</v>
       </c>
     </row>
     <row r="749">
@@ -10179,7 +10179,7 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>0.0006258533370467792</v>
+        <v>0.0006258533370468225</v>
       </c>
     </row>
     <row r="751">
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>0.0009522862910560007</v>
+        <v>0.0009522862910560512</v>
       </c>
     </row>
     <row r="752">
@@ -10244,7 +10244,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>0.7905297403709046</v>
+        <v>0.7905297403708875</v>
       </c>
     </row>
     <row r="756">
@@ -10270,7 +10270,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>0.01486123210318944</v>
+        <v>0.01486123210319002</v>
       </c>
     </row>
     <row r="758">
@@ -10309,7 +10309,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>0.9369490280408205</v>
+        <v>0.93694902804084</v>
       </c>
     </row>
     <row r="761">
@@ -10348,7 +10348,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>0.03519431603874182</v>
+        <v>0.03519431603874349</v>
       </c>
     </row>
     <row r="764">
@@ -10361,7 +10361,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>0.3370941975861737</v>
+        <v>0.3370941975861989</v>
       </c>
     </row>
     <row r="765">
@@ -10374,7 +10374,7 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>0.6271939937069819</v>
+        <v>0.627193993707002</v>
       </c>
     </row>
     <row r="766">
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>0.8735488257468713</v>
+        <v>0.8735488257468571</v>
       </c>
     </row>
     <row r="767">
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>0.1259094959068811</v>
+        <v>0.1259094959068899</v>
       </c>
     </row>
     <row r="768">
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>4.561921885294666e-06</v>
+        <v>4.561921885294802e-06</v>
       </c>
     </row>
     <row r="769">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>2.647728587426649e-05</v>
+        <v>2.64772858742639e-05</v>
       </c>
     </row>
     <row r="772">
@@ -10504,7 +10504,7 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>9.24713520175538e-12</v>
+        <v>9.247135201755278e-12</v>
       </c>
     </row>
     <row r="776">
@@ -10517,7 +10517,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>0.4613523243602807</v>
+        <v>0.461352324360312</v>
       </c>
     </row>
     <row r="777">
@@ -10530,7 +10530,7 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>0.003779371054104456</v>
+        <v>0.003779371054104585</v>
       </c>
     </row>
     <row r="778">
@@ -10556,7 +10556,7 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>0.1246796300648101</v>
+        <v>0.1246796300648156</v>
       </c>
     </row>
     <row r="780">
@@ -10569,7 +10569,7 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>0.00368957643070448</v>
+        <v>0.003689576430704338</v>
       </c>
     </row>
     <row r="781">
@@ -10608,7 +10608,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>0.1879234081735623</v>
+        <v>0.1879234081735761</v>
       </c>
     </row>
     <row r="784">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>0.06970682485883371</v>
+        <v>0.0697068248588366</v>
       </c>
     </row>
     <row r="787">
@@ -10660,7 +10660,7 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>0.1483504721780767</v>
+        <v>0.1483504721780876</v>
       </c>
     </row>
     <row r="788">
@@ -10673,7 +10673,7 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>0.03586674216368461</v>
+        <v>0.03586674216367925</v>
       </c>
     </row>
     <row r="789">
@@ -10686,7 +10686,7 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>0.4157699781292478</v>
+        <v>0.415769978129194</v>
       </c>
     </row>
     <row r="790">
@@ -10699,7 +10699,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>1.238301924367573e-08</v>
+        <v>1.238301924367616e-08</v>
       </c>
     </row>
     <row r="791">
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>6.653789352166591e-05</v>
+        <v>6.653789352166325e-05</v>
       </c>
     </row>
     <row r="792">
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>0.0006598361539195204</v>
+        <v>0.0006598361539195451</v>
       </c>
     </row>
     <row r="793">
@@ -10738,7 +10738,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>0.004020166724360513</v>
+        <v>0.004020166724360781</v>
       </c>
     </row>
     <row r="794">
@@ -10777,7 +10777,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>2.371911960290243e-07</v>
+        <v>2.371911960290177e-07</v>
       </c>
     </row>
     <row r="797">
@@ -10803,7 +10803,7 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>6.787341220275604e-09</v>
+        <v>6.787341220275753e-09</v>
       </c>
     </row>
     <row r="799">
@@ -10842,7 +10842,7 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>0.5337615038236796</v>
+        <v>0.5337615038236444</v>
       </c>
     </row>
     <row r="802">
@@ -10855,7 +10855,7 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>0.3038710333553873</v>
+        <v>0.3038710333553625</v>
       </c>
     </row>
     <row r="803">
@@ -10881,7 +10881,7 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>0.3914070656048552</v>
+        <v>0.3914070656048703</v>
       </c>
     </row>
     <row r="805">
@@ -10894,7 +10894,7 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>0.5986580926921863</v>
+        <v>0.5986580926922054</v>
       </c>
     </row>
     <row r="806">
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>3.352547374720029e-06</v>
+        <v>3.352547374719949e-06</v>
       </c>
     </row>
     <row r="807">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>0.09010495118495573</v>
+        <v>0.09010495118495956</v>
       </c>
     </row>
     <row r="810">
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>0.06847716046342557</v>
+        <v>0.06847716046342844</v>
       </c>
     </row>
     <row r="812">
@@ -10985,7 +10985,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>0.005975312011982251</v>
+        <v>0.005975312011981784</v>
       </c>
     </row>
     <row r="813">
@@ -11011,7 +11011,7 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>0.1084023813338983</v>
+        <v>0.1084023813339062</v>
       </c>
     </row>
     <row r="815">
@@ -11037,7 +11037,7 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>0.001651350931799024</v>
+        <v>0.001651350931799029</v>
       </c>
     </row>
     <row r="817">
@@ -11050,7 +11050,7 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>5.104338943475605e-05</v>
+        <v>5.10433894347586e-05</v>
       </c>
     </row>
     <row r="818">
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>0.0577026653271124</v>
+        <v>0.0577026653271147</v>
       </c>
     </row>
     <row r="821">
@@ -11102,7 +11102,7 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>1.30602189868305e-11</v>
+        <v>1.306021898683007e-11</v>
       </c>
     </row>
     <row r="822">
@@ -11115,7 +11115,7 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>0.2647573837445467</v>
+        <v>0.2647573837445358</v>
       </c>
     </row>
     <row r="823">
@@ -11128,7 +11128,7 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>0.1138698801904274</v>
+        <v>0.1138698801904182</v>
       </c>
     </row>
     <row r="824">
@@ -11180,7 +11180,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>1.064435369095992e-05</v>
+        <v>1.064435369095963e-05</v>
       </c>
     </row>
     <row r="828">
@@ -11193,7 +11193,7 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>0.00012319583966171</v>
+        <v>0.0001231958396617013</v>
       </c>
     </row>
     <row r="829">
@@ -11206,7 +11206,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>0.7617298691334096</v>
+        <v>0.7617298691333778</v>
       </c>
     </row>
     <row r="830">
@@ -11232,7 +11232,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>0.945365085966696</v>
+        <v>0.9453650859667156</v>
       </c>
     </row>
     <row r="832">
@@ -11245,7 +11245,7 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>0.01845103854296491</v>
+        <v>0.01845103854296625</v>
       </c>
     </row>
     <row r="833">
@@ -11258,7 +11258,7 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>0.002306216229862152</v>
+        <v>0.002306216229862245</v>
       </c>
     </row>
     <row r="834">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>0.1086669223322949</v>
+        <v>0.1086669223323038</v>
       </c>
     </row>
     <row r="835">
@@ -11284,7 +11284,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>0.6326261682090377</v>
+        <v>0.6326261682090198</v>
       </c>
     </row>
     <row r="836">
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>1.567055022813246e-05</v>
+        <v>1.567055022813211e-05</v>
       </c>
     </row>
     <row r="839">
@@ -11375,7 +11375,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>2.608333448112735e-05</v>
+        <v>2.608333448112794e-05</v>
       </c>
     </row>
     <row r="843">
@@ -11453,7 +11453,7 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>0.8911381536967321</v>
+        <v>0.8911381536967464</v>
       </c>
     </row>
     <row r="849">
@@ -11466,7 +11466,7 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>1.798293368055359e-06</v>
+        <v>1.798293368055393e-06</v>
       </c>
     </row>
     <row r="850">
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>0.04214389724030684</v>
+        <v>0.04214389724031004</v>
       </c>
     </row>
     <row r="851">
@@ -11492,7 +11492,7 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>0.1758057766910401</v>
+        <v>0.1758057766910269</v>
       </c>
     </row>
     <row r="852">
@@ -11518,7 +11518,7 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>0.2219217291615558</v>
+        <v>0.2219217291615705</v>
       </c>
     </row>
     <row r="854">
@@ -11531,7 +11531,7 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>0.6897602861235175</v>
+        <v>0.6897602861234986</v>
       </c>
     </row>
     <row r="855">
@@ -11544,7 +11544,7 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>0.06805098625328897</v>
+        <v>0.06805098625328367</v>
       </c>
     </row>
     <row r="856">
@@ -11557,7 +11557,7 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>7.580856509098833e-13</v>
+        <v>7.58085650909875e-13</v>
       </c>
     </row>
     <row r="857">
@@ -11570,7 +11570,7 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>0.5368182575523601</v>
+        <v>0.5368182575523914</v>
       </c>
     </row>
     <row r="858">
@@ -11583,7 +11583,7 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>0.8017068192400723</v>
+        <v>0.8017068192401068</v>
       </c>
     </row>
     <row r="859">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>0.06747108736086925</v>
+        <v>0.06747108736086462</v>
       </c>
     </row>
     <row r="860">
@@ -11635,7 +11635,7 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>0.005213360657514073</v>
+        <v>0.005213360657514427</v>
       </c>
     </row>
     <row r="863">
@@ -11648,7 +11648,7 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>1.185940613765346e-11</v>
+        <v>1.185940613765333e-11</v>
       </c>
     </row>
     <row r="864">
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>0.004526117481650696</v>
+        <v>0.004526117481650369</v>
       </c>
     </row>
     <row r="865">
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>0.1731878296961326</v>
+        <v>0.1731878296961205</v>
       </c>
     </row>
     <row r="866">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>0.297416324713408</v>
+        <v>0.297416324713427</v>
       </c>
     </row>
     <row r="867">
@@ -11700,7 +11700,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>0.6090273178376064</v>
+        <v>0.6090273178376602</v>
       </c>
     </row>
     <row r="868">
@@ -11726,7 +11726,7 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>0.2691764561150736</v>
+        <v>0.2691764561150937</v>
       </c>
     </row>
     <row r="870">
@@ -11739,7 +11739,7 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>0.9657836206908667</v>
+        <v>0.965783620690859</v>
       </c>
     </row>
     <row r="871">
@@ -11752,7 +11752,7 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>0.006706543720141318</v>
+        <v>0.006706543720141575</v>
       </c>
     </row>
     <row r="872">
@@ -11791,7 +11791,7 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>0.7744367871791229</v>
+        <v>0.7744367871791236</v>
       </c>
     </row>
     <row r="875">
@@ -11817,7 +11817,7 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>1.86747535281152e-07</v>
+        <v>1.867475352811572e-07</v>
       </c>
     </row>
     <row r="877">
@@ -11856,7 +11856,7 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>0.3641997463875537</v>
+        <v>0.3641997463875803</v>
       </c>
     </row>
     <row r="880">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>0.1712593540132675</v>
+        <v>0.1712593540132742</v>
       </c>
     </row>
     <row r="882">
@@ -11908,7 +11908,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>0.0003187592475273807</v>
+        <v>0.0003187592475273692</v>
       </c>
     </row>
     <row r="884">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>4.277649915374e-09</v>
+        <v>4.27764991537389e-09</v>
       </c>
     </row>
     <row r="885">
@@ -11947,7 +11947,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>0.008813593249262303</v>
+        <v>0.008813593249261733</v>
       </c>
     </row>
     <row r="887">
@@ -11960,7 +11960,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>5.067679913113983e-06</v>
+        <v>5.06767991311386e-06</v>
       </c>
     </row>
     <row r="888">
@@ -11973,7 +11973,7 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>0.01877937826577306</v>
+        <v>0.0187793782657718</v>
       </c>
     </row>
     <row r="889">
@@ -11999,7 +11999,7 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>0.5500850237068057</v>
+        <v>0.5500850237068228</v>
       </c>
     </row>
     <row r="891">
@@ -12038,7 +12038,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>0.1041261169799522</v>
+        <v>0.1041261169799449</v>
       </c>
     </row>
     <row r="894">
@@ -12051,7 +12051,7 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>0.04477189232708263</v>
+        <v>0.0447718923270858</v>
       </c>
     </row>
     <row r="895">
@@ -12064,7 +12064,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>0.0001246862453108301</v>
+        <v>0.0001246862453108336</v>
       </c>
     </row>
     <row r="896">
@@ -12077,7 +12077,7 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>0.04011883560425523</v>
+        <v>0.04011883560425779</v>
       </c>
     </row>
     <row r="897">
@@ -12090,7 +12090,7 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>0.6704576472028876</v>
+        <v>0.6704576472029204</v>
       </c>
     </row>
     <row r="898">
@@ -12103,7 +12103,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>0.3611091511745405</v>
+        <v>0.3611091511745272</v>
       </c>
     </row>
     <row r="899">
@@ -12116,7 +12116,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>0.7538548431350034</v>
+        <v>0.7538548431350227</v>
       </c>
     </row>
     <row r="900">
@@ -12129,7 +12129,7 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>0.2008774824223554</v>
+        <v>0.2008774824223687</v>
       </c>
     </row>
     <row r="901">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>4.063030980568538e-09</v>
+        <v>4.063030980568626e-09</v>
       </c>
     </row>
     <row r="903">
@@ -12168,7 +12168,7 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>0.1918047755838403</v>
+        <v>0.1918047755838537</v>
       </c>
     </row>
     <row r="904">
@@ -12194,7 +12194,7 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>0.1158576572187735</v>
+        <v>0.1158576572187781</v>
       </c>
     </row>
     <row r="906">
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>0.08048597571689432</v>
+        <v>0.08048597571688919</v>
       </c>
     </row>
     <row r="907">
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>0.2305993460370281</v>
+        <v>0.230599346036979</v>
       </c>
     </row>
     <row r="908">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>0.002630086198794845</v>
+        <v>0.00263008619879474</v>
       </c>
     </row>
     <row r="910">
@@ -12298,7 +12298,7 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>0.0005077812413994677</v>
+        <v>0.0005077812413994979</v>
       </c>
     </row>
     <row r="914">
@@ -12311,7 +12311,7 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>0.01985395935920169</v>
+        <v>0.01985395935920287</v>
       </c>
     </row>
     <row r="915">
@@ -12337,7 +12337,7 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>0.2338339096116107</v>
+        <v>0.2338339096116197</v>
       </c>
     </row>
     <row r="917">
@@ -12376,7 +12376,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>0.1478499640906977</v>
+        <v>0.1478499640907084</v>
       </c>
     </row>
     <row r="920">
@@ -12402,7 +12402,7 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>7.897442988358333e-07</v>
+        <v>7.897442988358507e-07</v>
       </c>
     </row>
     <row r="922">
@@ -12415,7 +12415,7 @@
         </is>
       </c>
       <c r="C922" t="n">
-        <v>0.0004937435078817902</v>
+        <v>0.000493743507881821</v>
       </c>
     </row>
     <row r="923">
@@ -12428,7 +12428,7 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>0.2779490009912744</v>
+        <v>0.2779490009912943</v>
       </c>
     </row>
     <row r="924">
@@ -12454,7 +12454,7 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>0.5463738730845669</v>
+        <v>0.5463738730845302</v>
       </c>
     </row>
     <row r="926">
@@ -12467,7 +12467,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>0.1207231986809569</v>
+        <v>0.1207231986809317</v>
       </c>
     </row>
     <row r="927">
@@ -12480,7 +12480,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>4.930950406898573e-08</v>
+        <v>4.930950406898429e-08</v>
       </c>
     </row>
     <row r="928">
@@ -12493,7 +12493,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>1.109549896995186e-05</v>
+        <v>1.109549896995225e-05</v>
       </c>
     </row>
     <row r="929">
@@ -12519,7 +12519,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>0.02872080409704291</v>
+        <v>0.02872080409704519</v>
       </c>
     </row>
     <row r="931">
@@ -12532,7 +12532,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>1.698345559300643e-06</v>
+        <v>1.698345559300556e-06</v>
       </c>
     </row>
     <row r="932">
@@ -12545,7 +12545,7 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>2.131824946097461e-10</v>
+        <v>2.131824946097515e-10</v>
       </c>
     </row>
     <row r="933">
@@ -12558,7 +12558,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>8.314928220502524e-06</v>
+        <v>8.31492822050268e-06</v>
       </c>
     </row>
     <row r="934">
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>0.02641219241914874</v>
+        <v>0.02641219241914702</v>
       </c>
     </row>
     <row r="938">
@@ -12636,7 +12636,7 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>9.432199227066863e-07</v>
+        <v>9.432199227067246e-07</v>
       </c>
     </row>
     <row r="940">
@@ -12649,7 +12649,7 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>0.0001173889019922176</v>
+        <v>0.0001173889019922146</v>
       </c>
     </row>
     <row r="941">
@@ -12662,7 +12662,7 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>9.34550348742202e-07</v>
+        <v>9.345503487422798e-07</v>
       </c>
     </row>
     <row r="942">
@@ -12675,7 +12675,7 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>0.5100301452968912</v>
+        <v>0.5100301452969265</v>
       </c>
     </row>
     <row r="943">
@@ -12688,7 +12688,7 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>0.0001082968597010084</v>
+        <v>0.0001082968597010126</v>
       </c>
     </row>
     <row r="944">
@@ -12701,7 +12701,7 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>3.416322467870502e-06</v>
+        <v>3.416322467870616e-06</v>
       </c>
     </row>
     <row r="945">
@@ -12753,7 +12753,7 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>6.648566671731797e-09</v>
+        <v>6.648566671731652e-09</v>
       </c>
     </row>
     <row r="949">
@@ -12766,7 +12766,7 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>2.470659583260251e-06</v>
+        <v>2.47065958326016e-06</v>
       </c>
     </row>
     <row r="950">
@@ -12779,7 +12779,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>1.626142208102832e-14</v>
+        <v>1.626142208102844e-14</v>
       </c>
     </row>
     <row r="951">
@@ -12805,7 +12805,7 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>1.211478857248672e-09</v>
+        <v>1.211478857248645e-09</v>
       </c>
     </row>
     <row r="953">
@@ -12831,7 +12831,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>1.095233523900827e-05</v>
+        <v>1.095233523900782e-05</v>
       </c>
     </row>
     <row r="955">
@@ -12857,7 +12857,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>5.519807453387553e-05</v>
+        <v>5.519807453387713e-05</v>
       </c>
     </row>
     <row r="957">
@@ -12870,7 +12870,7 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>0.06431871161984738</v>
+        <v>0.06431871161984969</v>
       </c>
     </row>
     <row r="958">
@@ -12883,7 +12883,7 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>0.113603773595047</v>
+        <v>0.1136037735950586</v>
       </c>
     </row>
     <row r="959">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>5.331094472095818e-06</v>
+        <v>5.331094472096017e-06</v>
       </c>
     </row>
     <row r="960">
@@ -12909,7 +12909,7 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>1.462359393887536e-05</v>
+        <v>1.462359393887503e-05</v>
       </c>
     </row>
     <row r="961">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>2.540590651624148e-06</v>
+        <v>2.540590651624181e-06</v>
       </c>
     </row>
     <row r="962">
@@ -12935,7 +12935,7 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>0.002705761498854748</v>
+        <v>0.002705761498854896</v>
       </c>
     </row>
     <row r="963">
@@ -12948,7 +12948,7 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>0.1768624270262487</v>
+        <v>0.1768624270262549</v>
       </c>
     </row>
     <row r="964">
@@ -12961,7 +12961,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>6.544241888728342e-08</v>
+        <v>6.544241888728221e-08</v>
       </c>
     </row>
     <row r="965">
@@ -12974,7 +12974,7 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>0.0008542307703447724</v>
+        <v>0.0008542307703448205</v>
       </c>
     </row>
     <row r="966">
@@ -12987,7 +12987,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>3.380141475504847e-12</v>
+        <v>3.380141475504885e-12</v>
       </c>
     </row>
     <row r="967">
@@ -13000,7 +13000,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>0.0005229005807579867</v>
+        <v>0.0005229005807580008</v>
       </c>
     </row>
     <row r="968">
@@ -13039,7 +13039,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>3.767090205296248e-13</v>
+        <v>3.76709020529622e-13</v>
       </c>
     </row>
     <row r="971">
@@ -13052,7 +13052,7 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>4.333489577214947e-12</v>
+        <v>4.333489577214979e-12</v>
       </c>
     </row>
     <row r="972">
@@ -13065,7 +13065,7 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>5.609121453177438e-15</v>
+        <v>5.609121453177479e-15</v>
       </c>
     </row>
     <row r="973">
@@ -13104,7 +13104,7 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>0.0009206581158404893</v>
+        <v>0.0009206581158404325</v>
       </c>
     </row>
     <row r="976">
@@ -13117,7 +13117,7 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>4.140510965939226e-11</v>
+        <v>4.140510965939196e-11</v>
       </c>
     </row>
     <row r="977">
@@ -13143,7 +13143,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>2.526025980607922e-08</v>
+        <v>2.526025980607871e-08</v>
       </c>
     </row>
     <row r="979">
@@ -13156,7 +13156,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>0.007643811441951904</v>
+        <v>0.007643811441952914</v>
       </c>
     </row>
     <row r="980">
@@ -13169,7 +13169,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>1.42960258856758e-12</v>
+        <v>1.429602588567543e-12</v>
       </c>
     </row>
     <row r="981">
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>1.87378215223985e-12</v>
+        <v>1.873782152239816e-12</v>
       </c>
     </row>
     <row r="983">
@@ -13234,7 +13234,7 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>5.00689643383923e-10</v>
+        <v>5.006896433839103e-10</v>
       </c>
     </row>
     <row r="986">
@@ -13247,7 +13247,7 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>2.686876091737916e-18</v>
+        <v>2.686876091737955e-18</v>
       </c>
     </row>
     <row r="987">
@@ -13273,7 +13273,7 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>1.872047238513555e-06</v>
+        <v>1.87204723851354e-06</v>
       </c>
     </row>
     <row r="989">
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>6.822667498439501e-07</v>
+        <v>6.822667498439376e-07</v>
       </c>
     </row>
     <row r="992">
@@ -13325,7 +13325,7 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>2.562524041111802e-06</v>
+        <v>2.562524041111845e-06</v>
       </c>
     </row>
     <row r="993">
@@ -13338,7 +13338,7 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>3.344118332090181e-06</v>
+        <v>3.344118332090194e-06</v>
       </c>
     </row>
     <row r="994">
@@ -13351,7 +13351,7 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>0.1360577884240035</v>
+        <v>0.1360577884239983</v>
       </c>
     </row>
     <row r="995">
@@ -13364,7 +13364,7 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>0.001458538961849816</v>
+        <v>0.001458538961849812</v>
       </c>
     </row>
     <row r="996">
@@ -13377,7 +13377,7 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>4.197338499823487e-13</v>
+        <v>4.197338499823456e-13</v>
       </c>
     </row>
     <row r="997">
@@ -13403,7 +13403,7 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>4.977308756014329e-15</v>
+        <v>4.977308756014257e-15</v>
       </c>
     </row>
     <row r="999">
@@ -13442,7 +13442,7 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>0.5665696474921986</v>
+        <v>0.5665696474922324</v>
       </c>
     </row>
     <row r="1002">
@@ -13455,7 +13455,7 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>5.049346986475107e-12</v>
+        <v>5.049346986475162e-12</v>
       </c>
     </row>
     <row r="1003">
@@ -13468,7 +13468,7 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>7.85707444540498e-09</v>
+        <v>7.857074445405095e-09</v>
       </c>
     </row>
     <row r="1004">
@@ -13481,7 +13481,7 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>0.2432041238754651</v>
+        <v>0.2432041238754551</v>
       </c>
     </row>
     <row r="1005">
@@ -13494,7 +13494,7 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>2.599642198375185e-12</v>
+        <v>2.599642198375166e-12</v>
       </c>
     </row>
     <row r="1006">
@@ -13507,7 +13507,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>1.096228686546535e-12</v>
+        <v>1.096228686546543e-12</v>
       </c>
     </row>
     <row r="1007">
@@ -13520,7 +13520,7 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>0.002096702733976272</v>
+        <v>0.002096702733976265</v>
       </c>
     </row>
     <row r="1008">
@@ -13585,7 +13585,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>1.152542882145791e-13</v>
+        <v>1.152542882145782e-13</v>
       </c>
     </row>
     <row r="1013">
@@ -13598,7 +13598,7 @@
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>5.688543932663717e-13</v>
+        <v>5.688543932663797e-13</v>
       </c>
     </row>
     <row r="1014">
@@ -13637,7 +13637,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>1.382713192344561e-15</v>
+        <v>1.382713192344551e-15</v>
       </c>
     </row>
     <row r="1017">
@@ -13650,7 +13650,7 @@
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>1.051621528410659e-12</v>
+        <v>1.051621528410636e-12</v>
       </c>
     </row>
     <row r="1018">
@@ -13663,7 +13663,7 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>9.364917895440554e-09</v>
+        <v>9.36491789544023e-09</v>
       </c>
     </row>
     <row r="1019">
@@ -13689,7 +13689,7 @@
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>0.0006548358386735653</v>
+        <v>0.0006548358386736062</v>
       </c>
     </row>
     <row r="1021">
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>0.4369678499668216</v>
+        <v>0.4369678499668462</v>
       </c>
     </row>
     <row r="1022">
@@ -13715,7 +13715,7 @@
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>8.266821685133026e-06</v>
+        <v>8.266821685133227e-06</v>
       </c>
     </row>
     <row r="1023">
@@ -13728,7 +13728,7 @@
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>0.01076075559708009</v>
+        <v>0.01076075559708045</v>
       </c>
     </row>
     <row r="1024">
@@ -13741,7 +13741,7 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>5.016475617591866e-09</v>
+        <v>5.016475617591922e-09</v>
       </c>
     </row>
     <row r="1025">
@@ -13754,7 +13754,7 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>0.6190096430989744</v>
+        <v>0.6190096430990026</v>
       </c>
     </row>
     <row r="1026">
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>0.2320901182006246</v>
+        <v>0.2320901182005995</v>
       </c>
     </row>
     <row r="1027">
@@ -13793,7 +13793,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>7.733515634341841e-08</v>
+        <v>7.733515634341882e-08</v>
       </c>
     </row>
     <row r="1029">
@@ -13819,7 +13819,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>3.426196114439308e-13</v>
+        <v>3.426196114439258e-13</v>
       </c>
     </row>
     <row r="1031">
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>0.002123294785163688</v>
+        <v>0.002123294785163617</v>
       </c>
     </row>
     <row r="1032">
@@ -13858,7 +13858,7 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>2.200436890207048e-17</v>
+        <v>2.200436890207017e-17</v>
       </c>
     </row>
     <row r="1034">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>4.847272058661596e-06</v>
+        <v>4.847272058661614e-06</v>
       </c>
     </row>
     <row r="1035">
@@ -13884,7 +13884,7 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>8.259477093664631e-12</v>
+        <v>8.259477093664722e-12</v>
       </c>
     </row>
     <row r="1036">
@@ -13910,7 +13910,7 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>3.14503511522141e-16</v>
+        <v>3.145035115221364e-16</v>
       </c>
     </row>
     <row r="1038">
@@ -13923,7 +13923,7 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>9.678215552466151e-10</v>
+        <v>9.67821555246594e-10</v>
       </c>
     </row>
     <row r="1039">
@@ -13949,7 +13949,7 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>7.353167465255495e-14</v>
+        <v>7.353167465255389e-14</v>
       </c>
     </row>
     <row r="1041">
@@ -13988,7 +13988,7 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>9.142243605195601e-08</v>
+        <v>9.142243605195769e-08</v>
       </c>
     </row>
     <row r="1044">
@@ -14001,7 +14001,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>0.1059293118690224</v>
+        <v>0.105929311869009</v>
       </c>
     </row>
     <row r="1045">
@@ -14014,7 +14014,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>0.4856121759598399</v>
+        <v>0.4856121759598546</v>
       </c>
     </row>
     <row r="1046">
@@ -14027,7 +14027,7 @@
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>0.0008360145472639277</v>
+        <v>0.0008360145472640002</v>
       </c>
     </row>
     <row r="1047">
@@ -14040,7 +14040,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>0.002171241358918891</v>
+        <v>0.002171241358918887</v>
       </c>
     </row>
     <row r="1048">
@@ -14092,7 +14092,7 @@
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>0.1891586999769889</v>
+        <v>0.1891586999769886</v>
       </c>
     </row>
     <row r="1052">
@@ -14105,7 +14105,7 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>4.230878234932927e-08</v>
+        <v>4.23087823493285e-08</v>
       </c>
     </row>
     <row r="1053">
@@ -14118,7 +14118,7 @@
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>0.004242724599223808</v>
+        <v>0.004242724599223943</v>
       </c>
     </row>
     <row r="1054">
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>1.007524143120761e-11</v>
+        <v>1.00752414312075e-11</v>
       </c>
     </row>
     <row r="1055">
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>8.416966935843947e-05</v>
+        <v>8.416966935843591e-05</v>
       </c>
     </row>
     <row r="1057">
@@ -14170,7 +14170,7 @@
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>1.01932981011056e-12</v>
+        <v>1.019329810110556e-12</v>
       </c>
     </row>
     <row r="1058">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>7.454110334284974e-20</v>
+        <v>7.454110334284708e-20</v>
       </c>
     </row>
     <row r="1060">
@@ -14209,7 +14209,7 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>1.119655927964993e-15</v>
+        <v>1.119655927965001e-15</v>
       </c>
     </row>
     <row r="1061">
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>1.602345780093578e-05</v>
+        <v>1.602345780093617e-05</v>
       </c>
     </row>
     <row r="1062">
@@ -14235,7 +14235,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>0.3177544246759599</v>
+        <v>0.3177544246759696</v>
       </c>
     </row>
     <row r="1063">
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>0.0006245126226387219</v>
+        <v>0.0006245126226387579</v>
       </c>
     </row>
     <row r="1064">
@@ -14274,7 +14274,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>3.806270434664404e-09</v>
+        <v>3.806270434664461e-09</v>
       </c>
     </row>
     <row r="1066">
@@ -14287,7 +14287,7 @@
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>0.03334550089828435</v>
+        <v>0.03334550089828166</v>
       </c>
     </row>
     <row r="1067">
@@ -14300,7 +14300,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>2.371620698610731e-07</v>
+        <v>2.371620698610656e-07</v>
       </c>
     </row>
     <row r="1068">
@@ -14313,7 +14313,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>0.02133090503319062</v>
+        <v>0.02133090503319206</v>
       </c>
     </row>
     <row r="1069">
@@ -14378,7 +14378,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>1.677426352679097e-12</v>
+        <v>1.677426352679108e-12</v>
       </c>
     </row>
     <row r="1074">
@@ -14417,7 +14417,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>7.491518009401013e-12</v>
+        <v>7.491518009401121e-12</v>
       </c>
     </row>
     <row r="1077">
@@ -14456,7 +14456,7 @@
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>0.1411002645215842</v>
+        <v>0.141100264521584</v>
       </c>
     </row>
     <row r="1080">
@@ -14469,7 +14469,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>0.001749895611127246</v>
+        <v>0.001749895611127187</v>
       </c>
     </row>
     <row r="1081">
@@ -14482,7 +14482,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>2.104661684359587e-05</v>
+        <v>2.104661684359733e-05</v>
       </c>
     </row>
     <row r="1082">
@@ -14508,7 +14508,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>0.002005897821474589</v>
+        <v>0.002005897821474652</v>
       </c>
     </row>
     <row r="1084">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>1.002846240876902e-09</v>
+        <v>1.002846240876898e-09</v>
       </c>
     </row>
     <row r="1085">
@@ -14547,7 +14547,7 @@
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>2.032032054421841e-05</v>
+        <v>2.032032054421856e-05</v>
       </c>
     </row>
     <row r="1087">
@@ -14560,7 +14560,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>6.532647223163133e-17</v>
+        <v>6.532647223163038e-17</v>
       </c>
     </row>
     <row r="1088">
@@ -14573,7 +14573,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>4.274329437432474e-09</v>
+        <v>4.27432943743263e-09</v>
       </c>
     </row>
     <row r="1089">
@@ -14586,7 +14586,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>0.001366044003911558</v>
+        <v>0.001366044003911602</v>
       </c>
     </row>
     <row r="1090">
@@ -14612,7 +14612,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>1.760509972822948e-06</v>
+        <v>1.760509972822903e-06</v>
       </c>
     </row>
     <row r="1092">
@@ -14625,7 +14625,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>0.03083198848412431</v>
+        <v>0.03083198848412661</v>
       </c>
     </row>
     <row r="1093">
@@ -14651,7 +14651,7 @@
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>1.284433885778052e-07</v>
+        <v>1.284433885778033e-07</v>
       </c>
     </row>
     <row r="1095">
@@ -14664,7 +14664,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>3.290591669441078e-15</v>
+        <v>3.290591669441007e-15</v>
       </c>
     </row>
     <row r="1096">
@@ -14677,7 +14677,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>4.180801564976739e-05</v>
+        <v>4.180801564976535e-05</v>
       </c>
     </row>
     <row r="1097">
@@ -14729,7 +14729,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>0.002914346612662504</v>
+        <v>0.002914346612662608</v>
       </c>
     </row>
     <row r="1101">
@@ -14755,7 +14755,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>4.391932692738118e-06</v>
+        <v>4.391932692737858e-06</v>
       </c>
     </row>
     <row r="1103">
@@ -14768,7 +14768,7 @@
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>0.0001253721678487844</v>
+        <v>0.0001253721678487941</v>
       </c>
     </row>
     <row r="1104">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>2.352728199625402e-08</v>
+        <v>2.35272819962539e-08</v>
       </c>
     </row>
     <row r="1107">
@@ -14820,7 +14820,7 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>0.03683668406023238</v>
+        <v>0.03683668406023481</v>
       </c>
     </row>
     <row r="1108">
@@ -14833,7 +14833,7 @@
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>1.983438554503456e-10</v>
+        <v>1.983438554503405e-10</v>
       </c>
     </row>
     <row r="1109">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>2.477805602817925e-16</v>
+        <v>2.477805602817889e-16</v>
       </c>
     </row>
     <row r="1110">
@@ -14872,7 +14872,7 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>3.250843135248311e-12</v>
+        <v>3.250843135248253e-12</v>
       </c>
     </row>
     <row r="1112">
@@ -14885,7 +14885,7 @@
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>4.334697603588105e-15</v>
+        <v>4.334697603588074e-15</v>
       </c>
     </row>
     <row r="1113">
@@ -14937,7 +14937,7 @@
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>5.249421796563851e-16</v>
+        <v>5.249421796563776e-16</v>
       </c>
     </row>
     <row r="1117">
@@ -14950,7 +14950,7 @@
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>0.2430142570812777</v>
+        <v>0.2430142570812863</v>
       </c>
     </row>
     <row r="1118">
@@ -14963,7 +14963,7 @@
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>0.003141398684493155</v>
+        <v>0.003141398684493024</v>
       </c>
     </row>
     <row r="1119">
@@ -14989,7 +14989,7 @@
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>2.16223845259366e-06</v>
+        <v>2.162238452593732e-06</v>
       </c>
     </row>
     <row r="1121">
@@ -15002,7 +15002,7 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>3.517026824392928e-07</v>
+        <v>3.517026824392915e-07</v>
       </c>
     </row>
     <row r="1122">
@@ -15041,7 +15041,7 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>0.05950563492810218</v>
+        <v>0.05950563492809985</v>
       </c>
     </row>
     <row r="1125">
@@ -15158,7 +15158,7 @@
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>5.852808879774587e-11</v>
+        <v>5.852808879774671e-11</v>
       </c>
     </row>
     <row r="1134">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>0.4363136255642613</v>
+        <v>0.4363136255642767</v>
       </c>
     </row>
     <row r="1135">
@@ -15184,7 +15184,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>0.5771279317754076</v>
+        <v>0.5771279317754228</v>
       </c>
     </row>
     <row r="1136">
@@ -15197,7 +15197,7 @@
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>0.00021660501396586</v>
+        <v>0.0002166050139658536</v>
       </c>
     </row>
     <row r="1137">
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>1.09144133402229e-05</v>
+        <v>1.091441334022335e-05</v>
       </c>
     </row>
     <row r="1139">
@@ -15236,7 +15236,7 @@
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>2.085062538173151e-05</v>
+        <v>2.085062538173144e-05</v>
       </c>
     </row>
     <row r="1140">
@@ -15249,7 +15249,7 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>0.03780221191825535</v>
+        <v>0.0378022119182571</v>
       </c>
     </row>
     <row r="1141">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>0.005502990020569982</v>
+        <v>0.005502990020570212</v>
       </c>
     </row>
     <row r="1142">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>1.515484895852815e-08</v>
+        <v>1.515484895852801e-08</v>
       </c>
     </row>
     <row r="1143">
@@ -15288,7 +15288,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>0.007062358976348821</v>
+        <v>0.007062358976349044</v>
       </c>
     </row>
     <row r="1144">
@@ -15301,7 +15301,7 @@
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>1.806814550553166e-13</v>
+        <v>1.806814550553199e-13</v>
       </c>
     </row>
     <row r="1145">
@@ -15353,7 +15353,7 @@
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>1.939481415327647e-19</v>
+        <v>1.93948141532762e-19</v>
       </c>
     </row>
     <row r="1149">
@@ -15392,7 +15392,7 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>0.4542597575411085</v>
+        <v>0.4542597575411077</v>
       </c>
     </row>
     <row r="1152">
@@ -15418,7 +15418,7 @@
         </is>
       </c>
       <c r="C1153" t="n">
-        <v>7.511521337789516e-07</v>
+        <v>7.511521337789295e-07</v>
       </c>
     </row>
     <row r="1154">
@@ -15431,7 +15431,7 @@
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>0.0296759954829949</v>
+        <v>0.02967599548299485</v>
       </c>
     </row>
     <row r="1155">
@@ -15444,7 +15444,7 @@
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>8.212883174848443e-06</v>
+        <v>8.212883174848472e-06</v>
       </c>
     </row>
     <row r="1156">
@@ -15457,7 +15457,7 @@
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>0.4691992033328767</v>
+        <v>0.4691992033328906</v>
       </c>
     </row>
     <row r="1157">
@@ -15470,7 +15470,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>0.04079268457455204</v>
+        <v>0.04079268457454931</v>
       </c>
     </row>
     <row r="1158">
@@ -15483,7 +15483,7 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>6.526296765651702e-08</v>
+        <v>6.526296765651427e-08</v>
       </c>
     </row>
     <row r="1159">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>0.008817525634983498</v>
+        <v>0.008817525634984124</v>
       </c>
     </row>
     <row r="1160">
@@ -15509,7 +15509,7 @@
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>2.974914759140497e-11</v>
+        <v>2.974914759140519e-11</v>
       </c>
     </row>
     <row r="1161">
@@ -15522,7 +15522,7 @@
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>3.488974976104413e-17</v>
+        <v>3.488974976104463e-17</v>
       </c>
     </row>
     <row r="1162">
@@ -15535,7 +15535,7 @@
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>2.031063478322132e-17</v>
+        <v>2.031063478322102e-17</v>
       </c>
     </row>
     <row r="1163">
@@ -15548,7 +15548,7 @@
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>6.700737972830844e-14</v>
+        <v>6.700737972830747e-14</v>
       </c>
     </row>
     <row r="1164">
@@ -15561,7 +15561,7 @@
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>7.024078835822423e-09</v>
+        <v>7.024078835822449e-09</v>
       </c>
     </row>
     <row r="1165">
@@ -15574,7 +15574,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>3.341310494063735e-13</v>
+        <v>3.341310494063686e-13</v>
       </c>
     </row>
     <row r="1166">
@@ -15613,7 +15613,7 @@
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>3.234625506194503e-14</v>
+        <v>3.234625506194456e-14</v>
       </c>
     </row>
     <row r="1169">
@@ -15626,7 +15626,7 @@
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>4.886597770857369e-15</v>
+        <v>4.886597770857423e-15</v>
       </c>
     </row>
     <row r="1170">
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>0.1833487932931681</v>
+        <v>0.1833487932931745</v>
       </c>
     </row>
     <row r="1172">
@@ -15665,7 +15665,7 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>2.737327944989207e-05</v>
+        <v>2.737327944989125e-05</v>
       </c>
     </row>
     <row r="1173">
@@ -15678,7 +15678,7 @@
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>0.00104849929444609</v>
+        <v>0.001048499294446121</v>
       </c>
     </row>
     <row r="1174">
@@ -15691,7 +15691,7 @@
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>4.082436353845935e-07</v>
+        <v>4.082436353845769e-07</v>
       </c>
     </row>
     <row r="1175">
@@ -15704,7 +15704,7 @@
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>0.2190595682413466</v>
+        <v>0.2190595682413383</v>
       </c>
     </row>
     <row r="1176">
@@ -15717,7 +15717,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>1.278380110174409e-06</v>
+        <v>1.278380110174383e-06</v>
       </c>
     </row>
     <row r="1177">
@@ -15730,7 +15730,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>0.00542982728186053</v>
+        <v>0.00542982728186035</v>
       </c>
     </row>
     <row r="1178">
@@ -15743,7 +15743,7 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>1.434151862802173e-12</v>
+        <v>1.434151862802209e-12</v>
       </c>
     </row>
     <row r="1179">
@@ -15782,7 +15782,7 @@
         </is>
       </c>
       <c r="C1181" t="n">
-        <v>3.998515123529782e-14</v>
+        <v>3.998515123529753e-14</v>
       </c>
     </row>
     <row r="1182">
@@ -15795,7 +15795,7 @@
         </is>
       </c>
       <c r="C1182" t="n">
-        <v>1.016479524292829e-14</v>
+        <v>1.016479524292837e-14</v>
       </c>
     </row>
     <row r="1183">
@@ -15808,7 +15808,7 @@
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>1.161565290668597e-18</v>
+        <v>1.161565290668622e-18</v>
       </c>
     </row>
     <row r="1184">
@@ -15834,7 +15834,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>1.152090433416171e-15</v>
+        <v>1.152090433416162e-15</v>
       </c>
     </row>
     <row r="1186">
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>0.6611098363240235</v>
+        <v>0.6611098363240043</v>
       </c>
     </row>
     <row r="1187">
@@ -15860,7 +15860,7 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>0.3286121102513384</v>
+        <v>0.3286121102513377</v>
       </c>
     </row>
     <row r="1188">
@@ -15873,7 +15873,7 @@
         </is>
       </c>
       <c r="C1188" t="n">
-        <v>1.227536004406067e-07</v>
+        <v>1.227536004406063e-07</v>
       </c>
     </row>
     <row r="1189">
@@ -15886,7 +15886,7 @@
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>5.44290607957846e-05</v>
+        <v>5.442906079578695e-05</v>
       </c>
     </row>
     <row r="1190">
@@ -15938,7 +15938,7 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>0.03316281869216998</v>
+        <v>0.03316281869217228</v>
       </c>
     </row>
     <row r="1194">
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>4.649684816918147e-14</v>
+        <v>4.649684816918181e-14</v>
       </c>
     </row>
     <row r="1199">
@@ -16016,7 +16016,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>8.998458409638746e-16</v>
+        <v>8.998458409638685e-16</v>
       </c>
     </row>
     <row r="1200">
@@ -16042,7 +16042,7 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>2.74557690985291e-07</v>
+        <v>2.745576909852971e-07</v>
       </c>
     </row>
     <row r="1202">
@@ -16068,7 +16068,7 @@
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>2.124361381986768e-11</v>
+        <v>2.124361381986729e-11</v>
       </c>
     </row>
     <row r="1204">
@@ -16094,7 +16094,7 @@
         </is>
       </c>
       <c r="C1205" t="n">
-        <v>0.0007215985089195587</v>
+        <v>0.0007215985089195956</v>
       </c>
     </row>
     <row r="1206">
@@ -16107,7 +16107,7 @@
         </is>
       </c>
       <c r="C1206" t="n">
-        <v>0.000415147458903979</v>
+        <v>0.0004151474589039961</v>
       </c>
     </row>
     <row r="1207">
@@ -16133,7 +16133,7 @@
         </is>
       </c>
       <c r="C1208" t="n">
-        <v>2.499666814632196e-07</v>
+        <v>2.499666814632233e-07</v>
       </c>
     </row>
     <row r="1209">
@@ -16159,7 +16159,7 @@
         </is>
       </c>
       <c r="C1210" t="n">
-        <v>0.0009268386743514984</v>
+        <v>0.0009268386743515259</v>
       </c>
     </row>
     <row r="1211">
@@ -16172,7 +16172,7 @@
         </is>
       </c>
       <c r="C1211" t="n">
-        <v>1.774506150089995e-11</v>
+        <v>1.774506150090007e-11</v>
       </c>
     </row>
     <row r="1212">
@@ -16185,7 +16185,7 @@
         </is>
       </c>
       <c r="C1212" t="n">
-        <v>0.003555187435987929</v>
+        <v>0.003555187435988033</v>
       </c>
     </row>
     <row r="1213">
@@ -16198,7 +16198,7 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>5.586043751524631e-12</v>
+        <v>5.58604375152455e-12</v>
       </c>
     </row>
     <row r="1214">
@@ -16211,7 +16211,7 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>1.644396280008464e-18</v>
+        <v>1.64439628000844e-18</v>
       </c>
     </row>
     <row r="1215">
@@ -16237,7 +16237,7 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>3.018390945079066e-12</v>
+        <v>3.018390945079121e-12</v>
       </c>
     </row>
     <row r="1217">
@@ -16276,7 +16276,7 @@
         </is>
       </c>
       <c r="C1219" t="n">
-        <v>1.515950018038219e-09</v>
+        <v>1.51595001803818e-09</v>
       </c>
     </row>
     <row r="1220">
@@ -16315,7 +16315,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>1.194954426639583e-05</v>
+        <v>1.194954426639579e-05</v>
       </c>
     </row>
     <row r="1223">
@@ -16328,7 +16328,7 @@
         </is>
       </c>
       <c r="C1223" t="n">
-        <v>0.1041330761506663</v>
+        <v>0.1041330761506627</v>
       </c>
     </row>
     <row r="1224">
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="C1224" t="n">
-        <v>0.9029269327298604</v>
+        <v>0.902926932729848</v>
       </c>
     </row>
     <row r="1225">
@@ -16354,7 +16354,7 @@
         </is>
       </c>
       <c r="C1225" t="n">
-        <v>0.001259203806688885</v>
+        <v>0.001259203806688847</v>
       </c>
     </row>
     <row r="1226">
@@ -16367,7 +16367,7 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>2.547474089628873e-07</v>
+        <v>2.547474089628967e-07</v>
       </c>
     </row>
     <row r="1227">
@@ -16380,7 +16380,7 @@
         </is>
       </c>
       <c r="C1227" t="n">
-        <v>0.06695575400390449</v>
+        <v>0.06695575400390073</v>
       </c>
     </row>
     <row r="1228">
@@ -16419,7 +16419,7 @@
         </is>
       </c>
       <c r="C1230" t="n">
-        <v>2.532525398787873e-07</v>
+        <v>2.532525398787841e-07</v>
       </c>
     </row>
     <row r="1231">
@@ -16432,7 +16432,7 @@
         </is>
       </c>
       <c r="C1231" t="n">
-        <v>0.03750602716295338</v>
+        <v>0.03750602716295465</v>
       </c>
     </row>
     <row r="1232">
@@ -16458,7 +16458,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>0.1472217239538484</v>
+        <v>0.1472217239538315</v>
       </c>
     </row>
     <row r="1234">
@@ -16497,7 +16497,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>8.084460806828313e-07</v>
+        <v>8.084460806828569e-07</v>
       </c>
     </row>
     <row r="1237">
@@ -16510,7 +16510,7 @@
         </is>
       </c>
       <c r="C1237" t="n">
-        <v>2.861288734449221e-14</v>
+        <v>2.861288734449201e-14</v>
       </c>
     </row>
     <row r="1238">
@@ -16549,7 +16549,7 @@
         </is>
       </c>
       <c r="C1240" t="n">
-        <v>3.816834520389145e-10</v>
+        <v>3.816834520389076e-10</v>
       </c>
     </row>
     <row r="1241">
@@ -16562,7 +16562,7 @@
         </is>
       </c>
       <c r="C1241" t="n">
-        <v>9.175059575213812e-16</v>
+        <v>9.175059575213879e-16</v>
       </c>
     </row>
     <row r="1242">
@@ -16575,7 +16575,7 @@
         </is>
       </c>
       <c r="C1242" t="n">
-        <v>1.628454979023237e-15</v>
+        <v>1.628454979023225e-15</v>
       </c>
     </row>
     <row r="1243">
@@ -16588,7 +16588,7 @@
         </is>
       </c>
       <c r="C1243" t="n">
-        <v>3.350429811673336e-05</v>
+        <v>3.350429811673437e-05</v>
       </c>
     </row>
     <row r="1244">
@@ -16614,7 +16614,7 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>0.0002223798248436006</v>
+        <v>0.0002223798248436129</v>
       </c>
     </row>
     <row r="1246">
@@ -16627,7 +16627,7 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>0.0008016201233084814</v>
+        <v>0.0008016201233084994</v>
       </c>
     </row>
     <row r="1247">
@@ -16640,7 +16640,7 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>9.471313903680043e-07</v>
+        <v>9.471313903679782e-07</v>
       </c>
     </row>
     <row r="1248">
@@ -16653,7 +16653,7 @@
         </is>
       </c>
       <c r="C1248" t="n">
-        <v>0.0113424573415194</v>
+        <v>0.01134245734152001</v>
       </c>
     </row>
     <row r="1249">
@@ -16666,7 +16666,7 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>0.3517134109297541</v>
+        <v>0.351713410929754</v>
       </c>
     </row>
     <row r="1250">
@@ -16705,7 +16705,7 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>4.335340653501646e-10</v>
+        <v>4.33534065350163e-10</v>
       </c>
     </row>
     <row r="1253">
@@ -16718,7 +16718,7 @@
         </is>
       </c>
       <c r="C1253" t="n">
-        <v>0.000984367842439923</v>
+        <v>0.0009843678424399256</v>
       </c>
     </row>
     <row r="1254">
@@ -16744,7 +16744,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>2.709040909496006e-13</v>
+        <v>2.709040909496044e-13</v>
       </c>
     </row>
     <row r="1256">
@@ -16757,7 +16757,7 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>3.046495582264914e-14</v>
+        <v>3.046495582264893e-14</v>
       </c>
     </row>
     <row r="1257">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>2.516009555471448e-10</v>
+        <v>2.516009555471364e-10</v>
       </c>
     </row>
     <row r="1260">
@@ -16835,7 +16835,7 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>1.627724813625042e-05</v>
+        <v>1.627724813625005e-05</v>
       </c>
     </row>
     <row r="1263">
@@ -16848,7 +16848,7 @@
         </is>
       </c>
       <c r="C1263" t="n">
-        <v>1.153592306033143e-16</v>
+        <v>1.153592306033127e-16</v>
       </c>
     </row>
     <row r="1264">
@@ -16861,7 +16861,7 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>4.917434902528357e-19</v>
+        <v>4.917434902528252e-19</v>
       </c>
     </row>
     <row r="1265">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>0.127648454451221</v>
+        <v>0.1276484544512167</v>
       </c>
     </row>
     <row r="1267">
@@ -16900,7 +16900,7 @@
         </is>
       </c>
       <c r="C1267" t="n">
-        <v>1.094627099866761e-13</v>
+        <v>1.094627099866745e-13</v>
       </c>
     </row>
     <row r="1268">
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>0.0001573941886725342</v>
+        <v>0.0001573941886725423</v>
       </c>
     </row>
     <row r="1271">
@@ -16952,7 +16952,7 @@
         </is>
       </c>
       <c r="C1271" t="n">
-        <v>0.0003688638986206782</v>
+        <v>0.000368863898620698</v>
       </c>
     </row>
     <row r="1272">
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="C1272" t="n">
-        <v>6.966921866388556e-05</v>
+        <v>6.96692186638889e-05</v>
       </c>
     </row>
     <row r="1273">
@@ -16978,7 +16978,7 @@
         </is>
       </c>
       <c r="C1273" t="n">
-        <v>2.54528675634553e-07</v>
+        <v>2.545286756345615e-07</v>
       </c>
     </row>
     <row r="1274">
@@ -16991,7 +16991,7 @@
         </is>
       </c>
       <c r="C1274" t="n">
-        <v>0.1799812927194881</v>
+        <v>0.1799812927194774</v>
       </c>
     </row>
     <row r="1275">
@@ -17030,7 +17030,7 @@
         </is>
       </c>
       <c r="C1277" t="n">
-        <v>4.955934286658622e-07</v>
+        <v>4.955934286658739e-07</v>
       </c>
     </row>
     <row r="1278">
@@ -17069,7 +17069,7 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>1.487136685270332e-11</v>
+        <v>1.487136685270321e-11</v>
       </c>
     </row>
     <row r="1281">
@@ -17082,7 +17082,7 @@
         </is>
       </c>
       <c r="C1281" t="n">
-        <v>3.377100178354301e-11</v>
+        <v>3.377100178354326e-11</v>
       </c>
     </row>
     <row r="1282">
@@ -17108,7 +17108,7 @@
         </is>
       </c>
       <c r="C1283" t="n">
-        <v>4.059587293897262e-13</v>
+        <v>4.059587293897233e-13</v>
       </c>
     </row>
     <row r="1284">
@@ -17134,7 +17134,7 @@
         </is>
       </c>
       <c r="C1285" t="n">
-        <v>8.157648015421772e-15</v>
+        <v>8.157648015421656e-15</v>
       </c>
     </row>
     <row r="1286">
@@ -17160,7 +17160,7 @@
         </is>
       </c>
       <c r="C1287" t="n">
-        <v>0.0001026961672062887</v>
+        <v>0.0001026961672062916</v>
       </c>
     </row>
     <row r="1288">
@@ -17173,7 +17173,7 @@
         </is>
       </c>
       <c r="C1288" t="n">
-        <v>3.484471225886346e-14</v>
+        <v>3.484471225886396e-14</v>
       </c>
     </row>
     <row r="1289">
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="C1289" t="n">
-        <v>0.002107172510749785</v>
+        <v>0.002107172510750036</v>
       </c>
     </row>
     <row r="1290">
@@ -17199,7 +17199,7 @@
         </is>
       </c>
       <c r="C1290" t="n">
-        <v>1.005255814180031e-15</v>
+        <v>1.005255814180038e-15</v>
       </c>
     </row>
     <row r="1291">
@@ -17212,7 +17212,7 @@
         </is>
       </c>
       <c r="C1291" t="n">
-        <v>2.876446653861315e-12</v>
+        <v>2.876446653861294e-12</v>
       </c>
     </row>
     <row r="1292">
@@ -17225,7 +17225,7 @@
         </is>
       </c>
       <c r="C1292" t="n">
-        <v>4.440399722482507e-16</v>
+        <v>4.440399722482444e-16</v>
       </c>
     </row>
     <row r="1293">
@@ -17251,7 +17251,7 @@
         </is>
       </c>
       <c r="C1294" t="n">
-        <v>4.180225286560692e-15</v>
+        <v>4.180225286560722e-15</v>
       </c>
     </row>
     <row r="1295">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>0.0005207820967132432</v>
+        <v>0.0005207820967131997</v>
       </c>
     </row>
     <row r="1297">
@@ -17290,7 +17290,7 @@
         </is>
       </c>
       <c r="C1297" t="n">
-        <v>4.461305889928084e-08</v>
+        <v>4.461305889928174e-08</v>
       </c>
     </row>
     <row r="1298">
@@ -17303,7 +17303,7 @@
         </is>
       </c>
       <c r="C1298" t="n">
-        <v>1.104276024534298e-05</v>
+        <v>1.104276024534271e-05</v>
       </c>
     </row>
     <row r="1299">
@@ -17316,7 +17316,7 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>5.024258007706314e-07</v>
+        <v>5.024258007706425e-07</v>
       </c>
     </row>
     <row r="1300">
@@ -17329,7 +17329,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>0.007992989588295913</v>
+        <v>0.007992989588296175</v>
       </c>
     </row>
     <row r="1301">
@@ -17342,7 +17342,7 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>0.004348901061416712</v>
+        <v>0.004348901061416873</v>
       </c>
     </row>
     <row r="1302">
@@ -17355,7 +17355,7 @@
         </is>
       </c>
       <c r="C1302" t="n">
-        <v>2.48029165585448e-08</v>
+        <v>2.480291655854481e-08</v>
       </c>
     </row>
     <row r="1303">
@@ -17420,7 +17420,7 @@
         </is>
       </c>
       <c r="C1307" t="n">
-        <v>4.579022181440391e-07</v>
+        <v>4.579022181440306e-07</v>
       </c>
     </row>
     <row r="1308">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>6.056610338845527e-14</v>
+        <v>6.056610338845571e-14</v>
       </c>
     </row>
     <row r="1310">
@@ -17459,7 +17459,7 @@
         </is>
       </c>
       <c r="C1310" t="n">
-        <v>1.309166538962798e-06</v>
+        <v>1.30916653896281e-06</v>
       </c>
     </row>
     <row r="1311">
@@ -17472,7 +17472,7 @@
         </is>
       </c>
       <c r="C1311" t="n">
-        <v>1.305012203200227e-06</v>
+        <v>1.305012203200232e-06</v>
       </c>
     </row>
     <row r="1312">
@@ -17511,7 +17511,7 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>4.265325788952445e-07</v>
+        <v>4.265325788952375e-07</v>
       </c>
     </row>
     <row r="1315">
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="C1315" t="n">
-        <v>1.020512180146856e-07</v>
+        <v>1.020512180146866e-07</v>
       </c>
     </row>
     <row r="1316">
@@ -17537,7 +17537,7 @@
         </is>
       </c>
       <c r="C1316" t="n">
-        <v>9.365122372373476e-07</v>
+        <v>9.365122372373685e-07</v>
       </c>
     </row>
     <row r="1317">
@@ -17550,7 +17550,7 @@
         </is>
       </c>
       <c r="C1317" t="n">
-        <v>3.881215088757261e-07</v>
+        <v>3.881215088757298e-07</v>
       </c>
     </row>
     <row r="1318">
@@ -17576,7 +17576,7 @@
         </is>
       </c>
       <c r="C1319" t="n">
-        <v>1.233122664883037e-15</v>
+        <v>1.233122664883046e-15</v>
       </c>
     </row>
     <row r="1320">
@@ -17589,7 +17589,7 @@
         </is>
       </c>
       <c r="C1320" t="n">
-        <v>3.795816700890373e-11</v>
+        <v>3.795816700890415e-11</v>
       </c>
     </row>
     <row r="1321">
@@ -17615,7 +17615,7 @@
         </is>
       </c>
       <c r="C1322" t="n">
-        <v>2.639026525140209e-11</v>
+        <v>2.639026525140257e-11</v>
       </c>
     </row>
     <row r="1323">
@@ -17628,7 +17628,7 @@
         </is>
       </c>
       <c r="C1323" t="n">
-        <v>6.066044939034468e-12</v>
+        <v>6.066044939034578e-12</v>
       </c>
     </row>
     <row r="1324">
@@ -17641,7 +17641,7 @@
         </is>
       </c>
       <c r="C1324" t="n">
-        <v>1.48096636568667e-05</v>
+        <v>1.480966365686679e-05</v>
       </c>
     </row>
     <row r="1325">
@@ -17693,7 +17693,7 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>4.59463180234839e-08</v>
+        <v>4.594631802348484e-08</v>
       </c>
     </row>
     <row r="1329">
@@ -17706,7 +17706,7 @@
         </is>
       </c>
       <c r="C1329" t="n">
-        <v>4.88160766170288e-09</v>
+        <v>4.881607661702791e-09</v>
       </c>
     </row>
     <row r="1330">
@@ -17719,7 +17719,7 @@
         </is>
       </c>
       <c r="C1330" t="n">
-        <v>1.582205154550447e-08</v>
+        <v>1.582205154550441e-08</v>
       </c>
     </row>
     <row r="1331">
@@ -17732,7 +17732,7 @@
         </is>
       </c>
       <c r="C1331" t="n">
-        <v>1.159859550287367e-09</v>
+        <v>1.159859550287384e-09</v>
       </c>
     </row>
     <row r="1332">
@@ -17745,7 +17745,7 @@
         </is>
       </c>
       <c r="C1332" t="n">
-        <v>6.146055493319157e-11</v>
+        <v>6.146055493319224e-11</v>
       </c>
     </row>
     <row r="1333">
@@ -17758,7 +17758,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>5.72821474825004e-07</v>
+        <v>5.728214748250251e-07</v>
       </c>
     </row>
   </sheetData>
